--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="24880" windowHeight="13340" activeTab="1"/>
+    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="352">
   <si>
     <t>Cours</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Représentation des nombres</t>
-  </si>
-  <si>
-    <t>Expression, variable, fonctions</t>
   </si>
   <si>
     <t>Complexité</t>
@@ -804,9 +801,6 @@
     <t>Image entête</t>
   </si>
   <si>
-    <t>architecture/ARCHI-000</t>
-  </si>
-  <si>
     <t>fin</t>
   </si>
   <si>
@@ -918,9 +912,6 @@
 On étudie et on compare ces algorithmes de tri du point de vue des complexités temporelles dans le meilleur et dans le pire cas. </t>
   </si>
   <si>
-    <t>architecture/consignes;architecture/ARCHI-002;python_bases/PYB-002-bis;python_bases/PYB-003-bis;python_bases/PYB-004</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -948,9 +939,6 @@
     <t>consignes/consignes_TP3;python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012;F:python_bases/PYB-409;F:python_bases/PYB-500</t>
   </si>
   <si>
-    <t>consignes/consignes_TP4;python_bases/PYB-501;python_bases/PYB-523;python_bases/PYB-506;F:python_bases/PYB-507</t>
-  </si>
-  <si>
     <t>2019-2020</t>
   </si>
   <si>
@@ -1059,9 +1047,6 @@
     <t>Recherche séquentielle</t>
   </si>
   <si>
-    <t>Structure séquentielle par boucles impribuées</t>
-  </si>
-  <si>
     <t>Utilisation de modules de bibliothèques</t>
   </si>
   <si>
@@ -1102,6 +1087,30 @@
   </si>
   <si>
     <t>Graphes 1</t>
+  </si>
+  <si>
+    <t>5 premiers items du S2</t>
+  </si>
+  <si>
+    <t>Terminaison/correction/jeux de tests associés aux programmes</t>
+  </si>
+  <si>
+    <t>Graphes</t>
+  </si>
+  <si>
+    <t>Préparation</t>
+  </si>
+  <si>
+    <t>20_architecture/ARCHI-000</t>
+  </si>
+  <si>
+    <t>Structure séquentielle par boucles imbriquées</t>
+  </si>
+  <si>
+    <t>consignes/consignes_TP3;04_chaines/STR-003</t>
+  </si>
+  <si>
+    <t>11_plot/generalites</t>
   </si>
 </sst>
 </file>
@@ -2444,6 +2453,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2453,16 +2528,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2491,81 +2575,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="656">
@@ -3555,60 +3564,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A2" s="104">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="82">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>302</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>306</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="25"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -3618,9 +3627,9 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="70" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C6" s="71">
         <v>43754</v>
@@ -3630,50 +3639,50 @@
       <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="82">
+      <c r="A7" s="104">
         <v>2</v>
       </c>
       <c r="B7" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="69" t="s">
         <v>302</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>306</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="73" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="25"/>
       <c r="F9" s="73"/>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="73" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
@@ -3683,9 +3692,9 @@
       <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="74" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C11" s="71">
         <v>43798</v>
@@ -3695,50 +3704,50 @@
       <c r="F11" s="71"/>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="82">
+      <c r="A12" s="104">
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="69" t="s">
         <v>302</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>306</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="76" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="83"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="25"/>
       <c r="F14" s="76"/>
       <c r="H14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="83"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="76" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -3748,9 +3757,9 @@
       <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="77" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C16" s="71">
         <v>43798</v>
@@ -3761,7 +3770,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3781,8 +3790,8 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3830,18 +3839,20 @@
       <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -3850,10 +3861,10 @@
         <v>18</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>20</v>
@@ -3866,35 +3877,39 @@
       <c r="B2" s="9">
         <v>44438</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="91">
+        <v>1</v>
+      </c>
+      <c r="D2" s="88"/>
       <c r="E2" s="17"/>
       <c r="F2" s="64"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="102" t="s">
-        <v>337</v>
-      </c>
-      <c r="I2" s="102"/>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="86"/>
       <c r="J2" s="80"/>
       <c r="K2" s="5" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="25"/>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U2" s="53"/>
       <c r="V2" s="58"/>
@@ -3908,36 +3923,38 @@
         <f>B2+7</f>
         <v>44445</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="92">
+        <v>1</v>
+      </c>
+      <c r="D3" s="89"/>
       <c r="E3" s="17"/>
       <c r="F3" s="55"/>
       <c r="G3" s="11">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>338</v>
       </c>
       <c r="J3" s="80"/>
       <c r="L3" s="66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M3" s="66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="25"/>
       <c r="P3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U3" s="53"/>
       <c r="V3" s="58"/>
@@ -3951,39 +3968,39 @@
         <f>B3+7</f>
         <v>44452</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="92">
+        <v>1</v>
+      </c>
+      <c r="D4" s="89"/>
       <c r="E4" s="17"/>
       <c r="F4" s="55"/>
       <c r="G4" s="11">
         <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>338</v>
-      </c>
       <c r="J4" s="80"/>
-      <c r="K4" s="5" t="s">
-        <v>287</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M4" s="66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="25"/>
       <c r="P4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="58"/>
@@ -3997,37 +4014,39 @@
         <f t="shared" ref="B5:B9" si="0">B4+7</f>
         <v>44459</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="92">
+        <v>1</v>
+      </c>
+      <c r="D5" s="89"/>
       <c r="E5" s="17"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="J5" s="80"/>
       <c r="K5" s="5"/>
       <c r="L5" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="25"/>
       <c r="P5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="58"/>
@@ -4041,45 +4060,47 @@
         <f>B5+7</f>
         <v>44466</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="92">
+        <v>1</v>
+      </c>
+      <c r="D6" s="89"/>
       <c r="E6" s="17"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="J6" s="80"/>
       <c r="K6" s="65" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="25"/>
       <c r="P6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="58"/>
       <c r="W6" s="58"/>
     </row>
-    <row r="7" spans="1:23" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4087,33 +4108,37 @@
         <f t="shared" si="0"/>
         <v>44473</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="105"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="17"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>330</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>331</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="65" t="s">
+        <v>351</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="66" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
       <c r="P7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="58"/>
@@ -4121,44 +4146,44 @@
     </row>
     <row r="8" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>44480</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="106"/>
+      <c r="C8" s="93">
+        <v>1</v>
+      </c>
+      <c r="D8" s="90"/>
       <c r="E8" s="17"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
         <v>3</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="I8" s="100" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>331</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="65" t="s">
-        <v>297</v>
-      </c>
+      <c r="K8" s="65"/>
       <c r="L8" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R8" s="20"/>
       <c r="U8" s="53"/>
@@ -4167,44 +4192,44 @@
     </row>
     <row r="9" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>44487</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
+      <c r="C9" s="82">
+        <v>1</v>
+      </c>
+      <c r="D9" s="83"/>
       <c r="E9" s="17"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="86">
+        <v>4</v>
+      </c>
+      <c r="H9" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="I9" s="100" t="s">
-        <v>336</v>
-      </c>
+      <c r="I9" s="84"/>
       <c r="J9" s="4"/>
       <c r="K9" s="65" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" s="20"/>
       <c r="U9" s="53"/>
@@ -4212,23 +4237,23 @@
       <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="19"/>
@@ -4244,30 +4269,34 @@
         <f>B9+21</f>
         <v>44508</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="91">
+        <v>1</v>
+      </c>
+      <c r="D11" s="88"/>
       <c r="E11" s="17"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="102">
-        <v>4</v>
-      </c>
-      <c r="H11" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="I11" s="100"/>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>334</v>
+      </c>
       <c r="J11" s="80"/>
       <c r="K11" s="65"/>
       <c r="L11" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
       <c r="O11" s="25"/>
       <c r="P11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R11" s="20"/>
       <c r="U11" s="53"/>
@@ -4282,34 +4311,36 @@
         <f t="shared" ref="B12:B16" si="1">B11+7</f>
         <v>44515</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="92">
+        <v>1</v>
+      </c>
+      <c r="D12" s="89"/>
       <c r="E12" s="17"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
         <v>5</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="J12" s="102" t="s">
-        <v>30</v>
+        <v>334</v>
+      </c>
+      <c r="J12" s="86" t="s">
+        <v>29</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="3"/>
       <c r="O12" s="25"/>
       <c r="P12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U12" s="53"/>
       <c r="V12" s="58"/>
@@ -4323,36 +4354,38 @@
         <f t="shared" si="1"/>
         <v>44522</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="92">
+        <v>1</v>
+      </c>
+      <c r="D13" s="89"/>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="J13" s="80"/>
       <c r="K13" s="65" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="25"/>
       <c r="P13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="R13" s="20"/>
       <c r="U13" s="53"/>
@@ -4367,34 +4400,36 @@
         <f t="shared" si="1"/>
         <v>44529</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="105"/>
+      <c r="C14" s="92">
+        <v>1</v>
+      </c>
+      <c r="D14" s="89"/>
       <c r="E14" s="17"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
         <v>6</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J14" s="80"/>
       <c r="K14" s="5"/>
       <c r="L14" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="25"/>
       <c r="P14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="U14" s="53"/>
       <c r="V14" s="58"/>
@@ -4408,38 +4443,40 @@
         <f t="shared" si="1"/>
         <v>44536</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="92">
+        <v>1</v>
+      </c>
+      <c r="D15" s="89"/>
       <c r="E15" s="17"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11">
-        <v>6</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>342</v>
+      <c r="G15" s="86">
+        <v>7</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>335</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L15" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15" s="20"/>
       <c r="U15" s="53"/>
@@ -4454,32 +4491,36 @@
         <f t="shared" si="1"/>
         <v>44543</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="93">
+        <v>1</v>
+      </c>
+      <c r="D16" s="90"/>
       <c r="E16" s="17"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="102">
-        <v>7</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="I16" s="11"/>
+      <c r="G16" s="11">
+        <v>8</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>333</v>
+      </c>
       <c r="J16" s="80"/>
       <c r="K16" s="5"/>
       <c r="L16" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="21"/>
       <c r="P16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R16" s="19"/>
       <c r="U16" s="53"/>
@@ -4487,23 +4528,23 @@
       <c r="W16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="19"/>
@@ -4519,36 +4560,38 @@
         <f>B16+21</f>
         <v>44564</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="91">
+        <v>1</v>
+      </c>
+      <c r="D18" s="88"/>
       <c r="E18" s="17"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
         <v>8</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="26"/>
       <c r="P18" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R18" s="20"/>
       <c r="U18" s="53"/>
@@ -4563,34 +4606,36 @@
         <f>B18+7</f>
         <v>44571</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="105"/>
+      <c r="C19" s="92">
+        <v>1</v>
+      </c>
+      <c r="D19" s="89"/>
       <c r="E19" s="17"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="5"/>
       <c r="L19" s="67" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="26"/>
       <c r="P19" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R19" s="20"/>
       <c r="U19" s="53"/>
@@ -4605,36 +4650,38 @@
         <f t="shared" ref="B20:B41" si="2">B19+7</f>
         <v>44578</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="92">
+        <v>1</v>
+      </c>
+      <c r="D20" s="89"/>
       <c r="E20" s="17"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
         <v>9</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="86" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="25"/>
       <c r="P20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" s="20"/>
       <c r="U20" s="53"/>
@@ -4649,32 +4696,34 @@
         <f>B20+7</f>
         <v>44585</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="93">
+        <v>1</v>
+      </c>
+      <c r="D21" s="90"/>
       <c r="E21" s="17"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11">
-        <v>9</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>344</v>
+      <c r="G21" s="86">
+        <v>10</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>335</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="80"/>
       <c r="K21" s="5"/>
       <c r="L21" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M21" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="25"/>
       <c r="P21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" s="20"/>
       <c r="U21" s="53"/>
@@ -4685,42 +4734,44 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="110">
+      <c r="B22" s="94">
         <f>B21+7</f>
         <v>44592</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113">
+      <c r="C22" s="95">
         <v>1</v>
       </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97">
+        <v>1</v>
+      </c>
       <c r="F22" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="102">
-        <v>10</v>
-      </c>
-      <c r="H22" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" s="12">
+        <v>11</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>340</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="80"/>
       <c r="K22" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L22" s="66" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M22" s="66" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="25"/>
       <c r="P22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R22" s="19"/>
       <c r="U22" s="53"/>
@@ -4731,38 +4782,44 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="110">
+      <c r="B23" s="94">
         <f>B22+7</f>
         <v>44599</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="95">
+        <v>1</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="G23" s="12">
         <v>11</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="80"/>
       <c r="K23" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L23" s="66" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M23" s="66" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N23" s="80"/>
       <c r="O23" s="25"/>
       <c r="P23" s="80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R23" s="19"/>
       <c r="U23" s="53"/>
@@ -4770,23 +4827,23 @@
       <c r="W23" s="58"/>
     </row>
     <row r="24" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="19"/>
@@ -4798,38 +4855,44 @@
       <c r="A25" s="1">
         <v>19</v>
       </c>
-      <c r="B25" s="110">
+      <c r="B25" s="94">
         <f>B23+21</f>
         <v>44620</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="111">
+        <v>1</v>
+      </c>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="G25" s="12">
         <v>11</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
       <c r="L25" s="66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M25" s="66" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O25" s="25"/>
       <c r="P25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R25" s="20"/>
     </row>
@@ -4837,38 +4900,42 @@
       <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="B26" s="110">
+      <c r="B26" s="94">
         <f>B25+7</f>
         <v>44627</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="12"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="97">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="G26" s="12">
         <v>12</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="102" t="s">
-        <v>31</v>
+      <c r="J26" s="86" t="s">
+        <v>30</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L26" s="66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M26" s="66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="25"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R26" s="20"/>
     </row>
@@ -4876,36 +4943,40 @@
       <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="110">
+      <c r="B27" s="94">
         <f>B26+7</f>
         <v>44634</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="97">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="G27" s="12">
         <v>12</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="18"/>
       <c r="K27" s="5"/>
       <c r="L27" s="66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="25"/>
       <c r="P27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R27" s="19"/>
       <c r="U27" s="53"/>
@@ -4916,34 +4987,38 @@
       <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="B28" s="110">
+      <c r="B28" s="94">
         <f t="shared" si="2"/>
         <v>44641</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="12"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="97">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="G28" s="12">
         <v>13</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I28" s="12"/>
       <c r="K28" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L28" s="66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R28" s="20"/>
       <c r="U28" s="53"/>
@@ -4954,36 +5029,40 @@
       <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="B29" s="110">
+      <c r="B29" s="94">
         <f t="shared" si="2"/>
         <v>44648</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="12"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="97">
+        <v>4</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="12">
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
       <c r="L29" s="66" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="21"/>
       <c r="P29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R29" s="19"/>
       <c r="U29" s="53"/>
@@ -4994,36 +5073,40 @@
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="110">
+      <c r="B30" s="94">
         <f t="shared" si="2"/>
         <v>44655</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="102">
+      <c r="C30" s="113"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="97">
+        <v>4</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="86">
         <v>17</v>
       </c>
-      <c r="H30" s="103" t="s">
-        <v>340</v>
+      <c r="H30" s="87" t="s">
+        <v>335</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="80"/>
       <c r="K30" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L30" s="66" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="25"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R30" s="20"/>
       <c r="U30" s="53"/>
@@ -5034,38 +5117,44 @@
       <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B31" s="110">
+      <c r="B31" s="94">
         <f t="shared" si="2"/>
         <v>44662</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="12"/>
+      <c r="C31" s="95">
+        <v>1</v>
+      </c>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97">
+        <v>5</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="12">
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
       <c r="L31" s="56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M31" s="66" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R31" s="19"/>
       <c r="U31" s="53"/>
@@ -5073,23 +5162,23 @@
       <c r="W31" s="58"/>
     </row>
     <row r="32" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="19"/>
@@ -5101,38 +5190,44 @@
       <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="B33" s="110">
+      <c r="B33" s="94">
         <f>B31+21</f>
         <v>44683</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="12"/>
+      <c r="C33" s="95">
+        <v>1</v>
+      </c>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97">
+        <v>5</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" s="12">
         <v>15</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="119"/>
+        <v>24</v>
+      </c>
+      <c r="I33" s="100"/>
       <c r="J33" s="18"/>
       <c r="K33" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L33" s="56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M33" s="56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N33" s="18"/>
       <c r="O33" s="26"/>
       <c r="P33" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R33" s="19"/>
       <c r="U33" s="53"/>
@@ -5143,36 +5238,42 @@
       <c r="A34" s="1">
         <v>27</v>
       </c>
-      <c r="B34" s="110">
+      <c r="B34" s="94">
         <f>B33+7</f>
         <v>44690</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="119">
+      <c r="C34" s="102">
+        <v>1</v>
+      </c>
+      <c r="D34" s="98"/>
+      <c r="E34" s="97">
+        <v>6</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G34" s="100">
         <v>16</v>
       </c>
-      <c r="H34" s="119" t="s">
+      <c r="H34" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="119"/>
+      <c r="I34" s="100"/>
       <c r="J34" s="6"/>
       <c r="K34" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L34" s="56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M34" s="56" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="27"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R34" s="20"/>
     </row>
@@ -5180,40 +5281,46 @@
       <c r="A35" s="1">
         <v>28</v>
       </c>
-      <c r="B35" s="110">
+      <c r="B35" s="94">
         <f t="shared" si="2"/>
         <v>44697</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="119">
+      <c r="C35" s="102">
+        <v>1</v>
+      </c>
+      <c r="D35" s="98"/>
+      <c r="E35" s="97">
+        <v>6</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G35" s="100">
         <v>16</v>
       </c>
-      <c r="H35" s="119" t="s">
+      <c r="H35" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="120"/>
-      <c r="J35" s="102" t="s">
-        <v>31</v>
+      <c r="I35" s="101"/>
+      <c r="J35" s="86" t="s">
+        <v>30</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L35" s="59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M35" s="59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="27"/>
       <c r="P35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R35" s="19"/>
     </row>
@@ -5221,34 +5328,40 @@
       <c r="A36" s="1">
         <v>29</v>
       </c>
-      <c r="B36" s="110">
+      <c r="B36" s="94">
         <f t="shared" si="2"/>
         <v>44704</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="102">
+      <c r="C36" s="103">
+        <v>1</v>
+      </c>
+      <c r="D36" s="99"/>
+      <c r="E36" s="97">
+        <v>6</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="86">
         <v>17</v>
       </c>
-      <c r="H36" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="I36" s="101"/>
+      <c r="H36" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="I36" s="85"/>
       <c r="K36" s="22"/>
       <c r="L36" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O36" s="21"/>
       <c r="P36" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R36" s="29"/>
     </row>
@@ -5256,21 +5369,27 @@
       <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B37" s="110">
+      <c r="B37" s="94">
         <f t="shared" si="2"/>
         <v>44711</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="119">
+      <c r="C37" s="95">
+        <v>1</v>
+      </c>
+      <c r="D37" s="96"/>
+      <c r="E37" s="97">
+        <v>6</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" s="100">
         <v>18</v>
       </c>
-      <c r="H37" s="119" t="s">
-        <v>348</v>
-      </c>
-      <c r="I37" s="119"/>
+      <c r="H37" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="I37" s="100"/>
       <c r="J37" s="7"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -5278,10 +5397,10 @@
       <c r="N37" s="7"/>
       <c r="O37" s="28"/>
       <c r="P37" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R37" s="20"/>
       <c r="U37" s="53"/>
@@ -5292,21 +5411,23 @@
       <c r="A38" s="1">
         <v>31</v>
       </c>
-      <c r="B38" s="110">
+      <c r="B38" s="94">
         <f t="shared" si="2"/>
         <v>44718</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="113"/>
+      <c r="C38" s="102">
+        <v>1</v>
+      </c>
+      <c r="D38" s="98"/>
+      <c r="E38" s="97"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="119">
+      <c r="G38" s="100">
         <v>18</v>
       </c>
-      <c r="H38" s="119" t="s">
-        <v>348</v>
-      </c>
-      <c r="I38" s="120"/>
+      <c r="H38" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="I38" s="101"/>
       <c r="J38" s="4"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
@@ -5317,7 +5438,7 @@
       <c r="O38" s="21"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R38" s="29"/>
       <c r="U38" s="53"/>
@@ -5328,21 +5449,23 @@
       <c r="A39" s="1">
         <v>32</v>
       </c>
-      <c r="B39" s="110">
+      <c r="B39" s="94">
         <f t="shared" si="2"/>
         <v>44725</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="113"/>
+      <c r="C39" s="102">
+        <v>1</v>
+      </c>
+      <c r="D39" s="98"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="119">
+      <c r="G39" s="100">
         <v>19</v>
       </c>
-      <c r="H39" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="119"/>
+      <c r="H39" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="100"/>
       <c r="J39" s="4"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -5351,7 +5474,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R39" s="20"/>
       <c r="U39" s="53"/>
@@ -5362,21 +5485,23 @@
       <c r="A40" s="1">
         <v>33</v>
       </c>
-      <c r="B40" s="110">
+      <c r="B40" s="94">
         <f t="shared" si="2"/>
         <v>44732</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="113"/>
+      <c r="C40" s="102">
+        <v>1</v>
+      </c>
+      <c r="D40" s="98"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="102">
+      <c r="G40" s="86">
         <v>17</v>
       </c>
-      <c r="H40" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="I40" s="119"/>
+      <c r="H40" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="I40" s="100"/>
       <c r="J40" s="18"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5385,7 +5510,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="18"/>
       <c r="Q40" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R40" s="29"/>
       <c r="U40" s="53"/>
@@ -5396,27 +5521,29 @@
       <c r="A41" s="1">
         <v>34</v>
       </c>
-      <c r="B41" s="110">
+      <c r="B41" s="94">
         <f t="shared" si="2"/>
         <v>44739</v>
       </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="113"/>
+      <c r="C41" s="103">
+        <v>1</v>
+      </c>
+      <c r="D41" s="99"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="119">
+      <c r="G41" s="100">
         <v>19</v>
       </c>
-      <c r="H41" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="120"/>
+      <c r="H41" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="101"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R41" s="20"/>
       <c r="U41" s="53"/>
@@ -5424,23 +5551,23 @@
       <c r="W41" s="58"/>
     </row>
     <row r="42" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
       <c r="P42" s="30"/>
       <c r="Q42" s="34"/>
       <c r="U42" s="53"/>
@@ -5551,23 +5678,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5575,7 +5702,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5583,7 +5710,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5597,7 +5724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -5611,393 +5738,393 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" s="54" t="s">
         <v>217</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="53" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C39" s="54" t="s">
         <v>22</v>
@@ -6005,285 +6132,285 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C61" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B64" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65" s="54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C66" s="54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6308,19 +6435,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
+      <c r="A1" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
@@ -6329,7 +6456,7 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="39"/>
     </row>
@@ -6337,7 +6464,7 @@
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="39"/>
     </row>
@@ -6345,7 +6472,7 @@
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="39"/>
     </row>
@@ -6357,44 +6484,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>60</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -6404,89 +6531,89 @@
       <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
+      <c r="A12" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>70</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>74</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>78</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>80</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>81</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>82</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>84</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
@@ -6495,7 +6622,7 @@
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="39"/>
     </row>
@@ -6503,7 +6630,7 @@
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="39"/>
     </row>
@@ -6511,7 +6638,7 @@
       <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="39"/>
     </row>
@@ -6519,7 +6646,7 @@
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="39"/>
     </row>
@@ -6527,7 +6654,7 @@
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="39"/>
     </row>
@@ -6539,60 +6666,60 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>93</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>95</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A30" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>96</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A31" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>99</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>100</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>101</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="39"/>
@@ -6601,70 +6728,70 @@
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>102</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>104</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="39" t="s">
         <v>106</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>112</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -6674,59 +6801,59 @@
       <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
+      <c r="A41" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>118</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
     </row>
     <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A43" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>120</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="45" t="s">
         <v>121</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>122</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="45" t="s">
         <v>123</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>124</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
     </row>
     <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A46" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="45" t="s">
         <v>125</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>126</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
@@ -6735,40 +6862,40 @@
       <c r="A47" s="37"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>127</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="37"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="46" t="s">
         <v>129</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A49" s="37"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="46" t="s">
         <v>131</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="40"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="48" t="s">
         <v>133</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6778,59 +6905,59 @@
       <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="97"/>
+      <c r="A52" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="51" t="s">
         <v>136</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>137</v>
       </c>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
     </row>
     <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A54" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>139</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
     </row>
     <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A55" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>141</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
     </row>
     <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A56" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>143</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
     </row>
     <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A57" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
@@ -6839,30 +6966,30 @@
       <c r="A58" s="52"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>146</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>148</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>150</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6872,42 +6999,42 @@
       <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="97"/>
+      <c r="A62" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="122"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="51" t="s">
         <v>153</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>154</v>
       </c>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>155</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>156</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
     </row>
     <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A65" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="C65" s="38" t="s">
         <v>158</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>159</v>
       </c>
       <c r="D65" s="38"/>
     </row>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="12840" yWindow="460" windowWidth="12760" windowHeight="14320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="353">
   <si>
     <t>Cours</t>
   </si>
@@ -1101,9 +1101,6 @@
     <t>Préparation</t>
   </si>
   <si>
-    <t>20_architecture/ARCHI-000</t>
-  </si>
-  <si>
     <t>Structure séquentielle par boucles imbriquées</t>
   </si>
   <si>
@@ -1111,6 +1108,12 @@
   </si>
   <si>
     <t>11_plot/generalites</t>
+  </si>
+  <si>
+    <t>XP Google form avec lien sur le site</t>
+  </si>
+  <si>
+    <t>consignes/consignes_tp00</t>
   </si>
 </sst>
 </file>
@@ -3791,7 +3794,7 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3889,10 +3892,12 @@
       <c r="H2" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="86" t="s">
+        <v>351</v>
+      </c>
       <c r="J2" s="80"/>
       <c r="K2" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L2" s="66" t="s">
         <v>289</v>
@@ -4024,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>334</v>
@@ -4070,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>334</v>
@@ -4123,7 +4128,7 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="66" t="s">
@@ -4213,7 +4218,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="4"/>
       <c r="K9" s="65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L9" s="61" t="s">
         <v>244</v>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="460" windowWidth="12760" windowHeight="14320" activeTab="1"/>
+    <workbookView xWindow="8420" yWindow="460" windowWidth="17180" windowHeight="14320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="341">
   <si>
     <t>Cours</t>
   </si>
@@ -936,9 +936,6 @@
     <t>AA.C4; AA.C5; AA.C6; AA.C8; AA.S8; AA.S9;AA.S10</t>
   </si>
   <si>
-    <t>consignes/consignes_TP3;python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012;F:python_bases/PYB-409;F:python_bases/PYB-500</t>
-  </si>
-  <si>
     <t>2019-2020</t>
   </si>
   <si>
@@ -975,9 +972,6 @@
     <t>architecture/ARCHI-004;algo/ALG-013;algo/ALG-014;algo/ALG-015;algo/ALG-016</t>
   </si>
   <si>
-    <t>consignes/consignes_TP5;plot/PLT-004;plot/PLT-005</t>
-  </si>
-  <si>
     <t>1-2;1-3;1-4;1-5;1-6</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
     <t>tableaux/TAB-026</t>
   </si>
   <si>
-    <t>consignes/consignes_TP6;fichiers/FIC-009;fichiers/FIC-011</t>
-  </si>
-  <si>
     <t>1-5;1-6;1-7</t>
   </si>
   <si>
@@ -999,51 +990,27 @@
     <t>tableaux/decryptage;tableaux/carre_magique</t>
   </si>
   <si>
-    <t>consignes/consignes_TP8;tableaux/TAB-027</t>
-  </si>
-  <si>
     <t>AN.C1; AN.C2</t>
   </si>
   <si>
-    <t>tableaux/percolation</t>
-  </si>
-  <si>
     <t>SN.C1; SN.C2; SN.C3; SN.C5; SN.S1; AN.S3</t>
   </si>
   <si>
-    <t>integration_numerique/INT-002;integration_numerique/INT-003</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SN.C2; SN.S3</t>
   </si>
   <si>
-    <t>consignes/consignes_TP11;equadiffs/EQD-007</t>
-  </si>
-  <si>
     <t>SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S2</t>
   </si>
   <si>
-    <t>consignes/consignes_tp12;stationnaire/STATIO-004</t>
-  </si>
-  <si>
     <t>SN.S4; SN.C3; SN.S1;</t>
   </si>
   <si>
     <t>SN.S4; SN.C3</t>
   </si>
   <si>
-    <t>consignes/consignes_tp13;systemes/polynome;systemes/pont_de_wheastone</t>
-  </si>
-  <si>
-    <t>consignes/consignes_tp14;sql/SQL-005</t>
-  </si>
-  <si>
     <t>BDD.C1; BDD.C2; BDD.C5; BDD.S3</t>
   </si>
   <si>
-    <t>sql/projet</t>
-  </si>
-  <si>
     <t>Recherche séquentielle</t>
   </si>
   <si>
@@ -1102,9 +1069,6 @@
   </si>
   <si>
     <t>Structure séquentielle par boucles imbriquées</t>
-  </si>
-  <si>
-    <t>consignes/consignes_TP3;04_chaines/STR-003</t>
   </si>
   <si>
     <t>11_plot/generalites</t>
@@ -1567,7 +1531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="656">
+  <cellStyleXfs count="658">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2224,6 +2188,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2580,7 +2546,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="656">
+  <cellStyles count="658">
     <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
@@ -2905,6 +2871,7 @@
     <cellStyle name="Lien hypertexte" xfId="650" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="656" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
@@ -3229,6 +3196,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
@@ -3567,16 +3535,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -3584,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
@@ -3596,10 +3564,10 @@
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
       <c r="B3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3608,10 +3576,10 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
       <c r="B4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>303</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>304</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="25"/>
@@ -3620,7 +3588,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
       <c r="B5" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -3632,7 +3600,7 @@
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="106"/>
       <c r="B6" s="70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="71">
         <v>43754</v>
@@ -3646,10 +3614,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
@@ -3658,10 +3626,10 @@
     <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="105"/>
       <c r="B8" s="73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
@@ -3670,22 +3638,22 @@
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
       <c r="B9" s="73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="25"/>
       <c r="F9" s="73"/>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
       <c r="B10" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
@@ -3697,7 +3665,7 @@
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="106"/>
       <c r="B11" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="71">
         <v>43798</v>
@@ -3711,10 +3679,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="69"/>
@@ -3723,10 +3691,10 @@
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="105"/>
       <c r="B13" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
@@ -3735,22 +3703,22 @@
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="105"/>
       <c r="B14" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="25"/>
       <c r="F14" s="76"/>
       <c r="H14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="105"/>
       <c r="B15" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -3762,7 +3730,7 @@
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="106"/>
       <c r="B16" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="71">
         <v>43798</v>
@@ -3793,8 +3761,8 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3843,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -3890,14 +3858,14 @@
         <v>0</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="J2" s="80"/>
       <c r="K2" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L2" s="66" t="s">
         <v>289</v>
@@ -3938,12 +3906,15 @@
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J3" s="80"/>
+      <c r="K3" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L3" s="66" t="s">
         <v>289</v>
       </c>
@@ -3983,10 +3954,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J4" s="80"/>
       <c r="K4" s="5"/>
@@ -4029,13 +4000,15 @@
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J5" s="80"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L5" s="56" t="s">
         <v>242</v>
       </c>
@@ -4075,15 +4048,12 @@
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J6" s="80"/>
-      <c r="K6" s="65" t="s">
-        <v>293</v>
-      </c>
       <c r="L6" s="5" t="s">
         <v>286</v>
       </c>
@@ -4121,14 +4091,14 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="65" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="66" t="s">
@@ -4167,10 +4137,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="65"/>
@@ -4213,12 +4183,12 @@
         <v>4</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I9" s="84"/>
       <c r="J9" s="4"/>
       <c r="K9" s="65" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="L9" s="61" t="s">
         <v>244</v>
@@ -4284,10 +4254,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J11" s="80"/>
       <c r="K11" s="65"/>
@@ -4326,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J12" s="86" t="s">
         <v>29</v>
@@ -4369,20 +4339,20 @@
         <v>6</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="J13" s="80"/>
       <c r="K13" s="65" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="L13" s="61" t="s">
         <v>243</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="25"/>
@@ -4390,7 +4360,7 @@
         <v>35</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R13" s="20"/>
       <c r="U13" s="53"/>
@@ -4415,10 +4385,10 @@
         <v>6</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="J14" s="80"/>
       <c r="K14" s="5"/>
@@ -4426,7 +4396,7 @@
         <v>243</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="25"/>
@@ -4434,7 +4404,7 @@
         <v>35</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="U14" s="53"/>
       <c r="V14" s="58"/>
@@ -4458,14 +4428,14 @@
         <v>7</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="5" t="s">
-        <v>310</v>
+      <c r="K15" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L15" s="66" t="s">
         <v>240</v>
@@ -4506,10 +4476,10 @@
         <v>8</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J16" s="80"/>
       <c r="K16" s="5"/>
@@ -4575,17 +4545,17 @@
         <v>8</v>
       </c>
       <c r="H18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="L18" s="67" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M18" s="61" t="s">
         <v>243</v>
@@ -4621,15 +4591,15 @@
         <v>9</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="5"/>
       <c r="L19" s="67" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M19" s="61" t="s">
         <v>243</v>
@@ -4665,14 +4635,14 @@
         <v>9</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>316</v>
+      <c r="K20" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L20" s="56" t="s">
         <v>168</v>
@@ -4711,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="86" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="80"/>
@@ -4751,24 +4721,24 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G22" s="12">
         <v>11</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="80"/>
-      <c r="K22" s="5" t="s">
-        <v>318</v>
+      <c r="K22" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L22" s="66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M22" s="66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="25"/>
@@ -4799,24 +4769,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G23" s="12">
         <v>11</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="80"/>
-      <c r="K23" s="5" t="s">
-        <v>318</v>
+      <c r="K23" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L23" s="66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M23" s="66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N23" s="80"/>
       <c r="O23" s="25"/>
@@ -4872,22 +4842,22 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G25" s="12">
         <v>11</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
       <c r="L25" s="66" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M25" s="66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>15</v>
@@ -4915,26 +4885,26 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G26" s="12">
         <v>12</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>320</v>
+      <c r="K26" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L26" s="66" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M26" s="66" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="25"/>
@@ -4958,22 +4928,22 @@
         <v>3</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G27" s="12">
         <v>12</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="18"/>
       <c r="K27" s="5"/>
       <c r="L27" s="66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="25"/>
@@ -5002,23 +4972,23 @@
         <v>3</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G28" s="12">
         <v>13</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="K28" s="5" t="s">
-        <v>322</v>
+      <c r="K28" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L28" s="66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="4"/>
@@ -5050,16 +5020,16 @@
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
       <c r="L29" s="66" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="21"/>
@@ -5094,18 +5064,18 @@
         <v>17</v>
       </c>
       <c r="H30" s="87" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="80"/>
-      <c r="K30" s="5" t="s">
-        <v>325</v>
+      <c r="K30" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L30" s="66" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="25"/>
@@ -5149,7 +5119,7 @@
         <v>236</v>
       </c>
       <c r="M31" s="66" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>30</v>
@@ -5217,8 +5187,8 @@
       </c>
       <c r="I33" s="100"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="22" t="s">
-        <v>326</v>
+      <c r="K33" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L33" s="56" t="s">
         <v>238</v>
@@ -5255,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G34" s="100">
         <v>16</v>
@@ -5265,14 +5235,14 @@
       </c>
       <c r="I34" s="100"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="22" t="s">
-        <v>326</v>
+      <c r="K34" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L34" s="56" t="s">
         <v>238</v>
       </c>
       <c r="M34" s="56" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="27"/>
@@ -5298,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G35" s="100">
         <v>16</v>
@@ -5310,8 +5280,8 @@
       <c r="J35" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="22" t="s">
-        <v>328</v>
+      <c r="K35" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="L35" s="59" t="s">
         <v>239</v>
@@ -5345,13 +5315,13 @@
         <v>6</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G36" s="86">
         <v>17</v>
       </c>
       <c r="H36" s="87" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I36" s="85"/>
       <c r="K36" s="22"/>
@@ -5386,13 +5356,13 @@
         <v>6</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G37" s="100">
         <v>18</v>
       </c>
       <c r="H37" s="100" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="I37" s="100"/>
       <c r="J37" s="7"/>
@@ -5430,7 +5400,7 @@
         <v>18</v>
       </c>
       <c r="H38" s="100" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="I38" s="101"/>
       <c r="J38" s="4"/>
@@ -5504,7 +5474,7 @@
         <v>17</v>
       </c>
       <c r="H40" s="87" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I40" s="100"/>
       <c r="J40" s="18"/>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="342">
   <si>
     <t>Cours</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>consignes/consignes_tp00</t>
+  </si>
+  <si>
+    <t>S1_01_RechercheSequentielle/01_AlgorithmesBasiques/01_AlgorithmesBasiques.tex</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +3916,7 @@
       </c>
       <c r="J3" s="80"/>
       <c r="K3" s="65" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L3" s="66" t="s">
         <v>289</v>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PESSOLES_LOCAL\GitHub\Informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="460" windowWidth="17180" windowHeight="14320" activeTab="1"/>
+    <workbookView xWindow="8415" yWindow="465" windowWidth="17175" windowHeight="14325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$F$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="344">
   <si>
     <t>Cours</t>
   </si>
@@ -1077,17 +1077,23 @@
     <t>XP Google form avec lien sur le site</t>
   </si>
   <si>
-    <t>consignes/consignes_tp00</t>
-  </si>
-  <si>
     <t>S1_01_RechercheSequentielle/01_AlgorithmesBasiques/01_AlgorithmesBasiques.tex</t>
+  </si>
+  <si>
+    <t>S1.C0</t>
+  </si>
+  <si>
+    <t>Connaitre les bases de l'algorithmique et de la programmation.</t>
+  </si>
+  <si>
+    <t>S1_00_QCM/consignes_tp00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3526,15 +3532,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3550,7 +3556,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="63">
       <c r="A2" s="104">
         <v>1</v>
       </c>
@@ -3564,7 +3570,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="89.25">
       <c r="A3" s="105"/>
       <c r="B3" s="3" t="s">
         <v>298</v>
@@ -3576,7 +3582,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="105"/>
       <c r="B4" s="3" t="s">
         <v>302</v>
@@ -3588,7 +3594,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="105"/>
       <c r="B5" s="3" t="s">
         <v>299</v>
@@ -3600,7 +3606,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
       <c r="A6" s="106"/>
       <c r="B6" s="70" t="s">
         <v>300</v>
@@ -3612,7 +3618,7 @@
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="63">
       <c r="A7" s="104">
         <v>2</v>
       </c>
@@ -3626,7 +3632,7 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
     </row>
-    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="38.25">
       <c r="A8" s="105"/>
       <c r="B8" s="73" t="s">
         <v>298</v>
@@ -3638,7 +3644,7 @@
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="25.5">
       <c r="A9" s="105"/>
       <c r="B9" s="73" t="s">
         <v>302</v>
@@ -3653,7 +3659,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="105"/>
       <c r="B10" s="73" t="s">
         <v>299</v>
@@ -3665,7 +3671,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
       <c r="A11" s="106"/>
       <c r="B11" s="74" t="s">
         <v>300</v>
@@ -3677,7 +3683,7 @@
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="63">
       <c r="A12" s="104">
         <v>3</v>
       </c>
@@ -3691,7 +3697,7 @@
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="25.5">
       <c r="A13" s="105"/>
       <c r="B13" s="76" t="s">
         <v>298</v>
@@ -3703,7 +3709,7 @@
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
     </row>
-    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="105"/>
       <c r="B14" s="76" t="s">
         <v>302</v>
@@ -3718,7 +3724,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="105"/>
       <c r="B15" s="76" t="s">
         <v>299</v>
@@ -3730,7 +3736,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
       <c r="A16" s="106"/>
       <c r="B16" s="77" t="s">
         <v>300</v>
@@ -3742,7 +3748,7 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -3759,36 +3765,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="26.1" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="37.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="32.6640625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="10.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="41.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="1"/>
-    <col min="21" max="21" width="10.83203125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="58.5" style="57" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="37.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="32.7109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="41.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="1"/>
+    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="58.42578125" style="57" customWidth="1"/>
+    <col min="24" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="26.1" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="32.1" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3868,13 +3874,13 @@
       </c>
       <c r="J2" s="80"/>
       <c r="K2" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="25"/>
@@ -3891,7 +3897,7 @@
       <c r="V2" s="58"/>
       <c r="W2" s="58"/>
     </row>
-    <row r="3" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="32.1" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3916,7 +3922,7 @@
       </c>
       <c r="J3" s="80"/>
       <c r="K3" s="65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L3" s="66" t="s">
         <v>289</v>
@@ -3939,7 +3945,7 @@
       <c r="V3" s="58"/>
       <c r="W3" s="58"/>
     </row>
-    <row r="4" spans="1:23" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="56.1" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3985,7 +3991,7 @@
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="32.1" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4033,7 +4039,7 @@
       <c r="V5" s="58"/>
       <c r="W5" s="58"/>
     </row>
-    <row r="6" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="26.1" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4078,7 +4084,7 @@
       <c r="V6" s="58"/>
       <c r="W6" s="58"/>
     </row>
-    <row r="7" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="26.1" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4122,7 +4128,7 @@
       <c r="V7" s="58"/>
       <c r="W7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="66" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4168,7 +4174,7 @@
       <c r="V8" s="58"/>
       <c r="W8" s="58"/>
     </row>
-    <row r="9" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="66" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4214,7 +4220,7 @@
       <c r="V9" s="58"/>
       <c r="W9" s="58"/>
     </row>
-    <row r="10" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="26.1" customHeight="1">
       <c r="A10" s="107" t="s">
         <v>9</v>
       </c>
@@ -4239,7 +4245,7 @@
       <c r="V10" s="58"/>
       <c r="W10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="26.1" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4281,7 +4287,7 @@
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="26.1" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4324,7 +4330,7 @@
       <c r="V12" s="58"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="26.1" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4370,7 +4376,7 @@
       <c r="V13" s="58"/>
       <c r="W13" s="58"/>
     </row>
-    <row r="14" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="26.1" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4413,7 +4419,7 @@
       <c r="V14" s="58"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="26.1" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4461,7 +4467,7 @@
       <c r="V15" s="58"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="26.1" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4505,7 +4511,7 @@
       <c r="V16" s="58"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="26.1" customHeight="1">
       <c r="A17" s="107" t="s">
         <v>10</v>
       </c>
@@ -4530,7 +4536,7 @@
       <c r="V17" s="58"/>
       <c r="W17" s="58"/>
     </row>
-    <row r="18" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="26.1" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4576,7 +4582,7 @@
       <c r="V18" s="58"/>
       <c r="W18" s="58"/>
     </row>
-    <row r="19" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="26.1" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4620,7 +4626,7 @@
       <c r="V19" s="58"/>
       <c r="W19" s="58"/>
     </row>
-    <row r="20" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="26.1" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4666,7 +4672,7 @@
       <c r="V20" s="58"/>
       <c r="W20" s="58"/>
     </row>
-    <row r="21" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="26.1" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4708,7 +4714,7 @@
       <c r="V21" s="58"/>
       <c r="W21" s="58"/>
     </row>
-    <row r="22" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="26.1" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4756,7 +4762,7 @@
       <c r="V22" s="58"/>
       <c r="W22" s="58"/>
     </row>
-    <row r="23" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="26.1" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4804,7 +4810,7 @@
       <c r="V23" s="58"/>
       <c r="W23" s="58"/>
     </row>
-    <row r="24" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="26.1" customHeight="1">
       <c r="A24" s="107" t="s">
         <v>11</v>
       </c>
@@ -4829,7 +4835,7 @@
       <c r="V24" s="58"/>
       <c r="W24" s="58"/>
     </row>
-    <row r="25" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="26.1" customHeight="1">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -4874,7 +4880,7 @@
       </c>
       <c r="R25" s="20"/>
     </row>
-    <row r="26" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="26.1" customHeight="1">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -4917,7 +4923,7 @@
       </c>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="26.1" customHeight="1">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -4961,7 +4967,7 @@
       <c r="V27" s="58"/>
       <c r="W27" s="58"/>
     </row>
-    <row r="28" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="26.1" customHeight="1">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -5003,7 +5009,7 @@
       <c r="V28" s="58"/>
       <c r="W28" s="58"/>
     </row>
-    <row r="29" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="26.1" customHeight="1">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -5047,7 +5053,7 @@
       <c r="V29" s="58"/>
       <c r="W29" s="58"/>
     </row>
-    <row r="30" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="26.1" customHeight="1">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -5091,7 +5097,7 @@
       <c r="V30" s="58"/>
       <c r="W30" s="58"/>
     </row>
-    <row r="31" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="26.1" customHeight="1">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -5139,7 +5145,7 @@
       <c r="V31" s="58"/>
       <c r="W31" s="58"/>
     </row>
-    <row r="32" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="26.1" customHeight="1">
       <c r="A32" s="109" t="s">
         <v>13</v>
       </c>
@@ -5164,7 +5170,7 @@
       <c r="V32" s="58"/>
       <c r="W32" s="58"/>
     </row>
-    <row r="33" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="26.1" customHeight="1">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -5212,7 +5218,7 @@
       <c r="V33" s="58"/>
       <c r="W33" s="58"/>
     </row>
-    <row r="34" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="26.1" customHeight="1">
       <c r="A34" s="1">
         <v>27</v>
       </c>
@@ -5255,7 +5261,7 @@
       </c>
       <c r="R34" s="20"/>
     </row>
-    <row r="35" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="26.1" customHeight="1">
       <c r="A35" s="1">
         <v>28</v>
       </c>
@@ -5302,7 +5308,7 @@
       </c>
       <c r="R35" s="19"/>
     </row>
-    <row r="36" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="26.1" customHeight="1">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -5343,7 +5349,7 @@
       </c>
       <c r="R36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="26.1" customHeight="1">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -5385,7 +5391,7 @@
       <c r="V37" s="58"/>
       <c r="W37" s="58"/>
     </row>
-    <row r="38" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="26.1" customHeight="1">
       <c r="A38" s="1">
         <v>31</v>
       </c>
@@ -5423,7 +5429,7 @@
       <c r="V38" s="58"/>
       <c r="W38" s="58"/>
     </row>
-    <row r="39" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="26.1" customHeight="1">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -5459,7 +5465,7 @@
       <c r="V39" s="58"/>
       <c r="W39" s="58"/>
     </row>
-    <row r="40" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="26.1" customHeight="1">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -5495,7 +5501,7 @@
       <c r="V40" s="58"/>
       <c r="W40" s="58"/>
     </row>
-    <row r="41" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="26.1" customHeight="1">
       <c r="A41" s="1">
         <v>34</v>
       </c>
@@ -5528,7 +5534,7 @@
       <c r="V41" s="58"/>
       <c r="W41" s="58"/>
     </row>
-    <row r="42" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="26.1" customHeight="1">
       <c r="A42" s="109" t="s">
         <v>14</v>
       </c>
@@ -5552,62 +5558,62 @@
       <c r="V42" s="58"/>
       <c r="W42" s="58"/>
     </row>
-    <row r="43" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="26.1" customHeight="1">
       <c r="U43" s="53"/>
       <c r="V43" s="58"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="26.1" customHeight="1">
       <c r="U44" s="53"/>
       <c r="V44" s="58"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="26.1" customHeight="1">
       <c r="U45" s="53"/>
       <c r="V45" s="58"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="26.1" customHeight="1">
       <c r="U46" s="53"/>
       <c r="V46" s="58"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="26.1" customHeight="1">
       <c r="U47" s="53"/>
       <c r="V47" s="58"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="26.1" customHeight="1">
       <c r="U48" s="53"/>
       <c r="V48" s="58"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="21:23" ht="26.1" customHeight="1">
       <c r="U49" s="53"/>
       <c r="V49" s="58"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="21:23" ht="26.1" customHeight="1">
       <c r="U50" s="53"/>
       <c r="V50" s="58"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="21:23" ht="26.1" customHeight="1">
       <c r="U51" s="53"/>
       <c r="V51" s="58"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="21:23" ht="26.1" customHeight="1">
       <c r="U52" s="53"/>
       <c r="V52" s="58"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="21:23" ht="26.1" customHeight="1">
       <c r="U53" s="53"/>
       <c r="V53" s="58"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="21:23" ht="26.1" customHeight="1">
       <c r="U54" s="53"/>
       <c r="V54" s="58"/>
       <c r="W54" s="58"/>
@@ -5635,15 +5641,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.85546875" style="2"/>
+    <col min="2" max="2" width="70.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -5651,7 +5657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38.1" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -5659,7 +5665,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38.1" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="38.1" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="38.1" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5683,7 +5689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="38.1" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -5700,21 +5706,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="53"/>
-    <col min="2" max="2" width="108.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.5" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="53"/>
+    <col min="1" max="1" width="10.85546875" style="53"/>
+    <col min="2" max="2" width="108.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.42578125" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="53" t="s">
         <v>215</v>
       </c>
@@ -5725,669 +5731,680 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B3" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C3" s="54" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B4" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C4" s="54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="53" t="s">
+    <row r="5" spans="1:3" ht="24">
+      <c r="A5" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B5" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C5" s="54" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B6" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C6" s="54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B8" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C8" s="54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B9" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C9" s="54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B10" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C10" s="54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="53" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B11" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C11" s="54" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B14" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C14" s="54" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B15" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C15" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="53" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B16" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C16" s="54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B17" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C17" s="54" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B18" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C18" s="54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="53" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B19" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C19" s="54" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B20" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C20" s="54" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="53" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B21" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C21" s="54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C22" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="53" t="s">
+    <row r="23" spans="1:3" ht="24">
+      <c r="A23" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B23" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C23" s="54" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="53" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B24" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C24" s="54" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="53" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B25" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C25" s="54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B28" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C28" s="63" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B29" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C29" s="63" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="62" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B30" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C30" s="63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="62" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B31" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C31" s="63" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="62" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B32" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C32" s="63" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B33" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C33" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="53" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B34" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C34" s="54" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="53" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B35" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C35" s="54" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="53" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B36" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C36" s="54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="53" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B37" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C37" s="54" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="53" t="s">
+    <row r="38" spans="1:3" ht="24">
+      <c r="A38" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B38" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C38" s="54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A38" s="53" t="s">
+    <row r="39" spans="1:3" ht="36">
+      <c r="A39" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B39" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C39" s="54" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="53" t="s">
+    <row r="40" spans="1:3" ht="24">
+      <c r="A40" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B40" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C40" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24">
+      <c r="A43" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B43" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C43" s="54" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A43" s="53" t="s">
+    <row r="44" spans="1:3" ht="36">
+      <c r="A44" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B44" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C44" s="54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="53" t="s">
+    <row r="45" spans="1:3" ht="24">
+      <c r="A45" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B45" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C45" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="53" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B46" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C46" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="53" t="s">
+    <row r="47" spans="1:3" ht="24">
+      <c r="A47" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B47" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C47" s="54" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="53" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B48" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C48" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="53" t="s">
+    <row r="49" spans="1:3" ht="24">
+      <c r="A49" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B49" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C49" s="54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="53" t="s">
+    <row r="50" spans="1:3" ht="24">
+      <c r="A50" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B50" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C50" s="54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A50" s="53" t="s">
+    <row r="51" spans="1:3" ht="24">
+      <c r="A51" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B51" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C51" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B54" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C54" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="53" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B55" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C55" s="54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="53" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B56" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C56" s="54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="53" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B57" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C57" s="54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="53" t="s">
+    <row r="58" spans="1:3" ht="24">
+      <c r="A58" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B58" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C58" s="54" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="53" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B59" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C59" s="54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="53" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B60" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C60" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A60" s="53" t="s">
+    <row r="61" spans="1:3" ht="24">
+      <c r="A61" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C61" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="53" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B62" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C62" s="54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="53" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="53" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B64" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C64" s="54" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="53" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B65" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C65" s="54" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="53" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B66" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C66" s="54" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A66" s="53" t="s">
+    <row r="67" spans="1:3" ht="48">
+      <c r="A67" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B67" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C67" s="54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="53" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B68" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C68" s="54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="53" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="53" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6406,13 +6423,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.33203125" customWidth="1"/>
+    <col min="2" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="114" t="s">
         <v>52</v>
       </c>
@@ -6420,7 +6437,7 @@
       <c r="C1" s="115"/>
       <c r="D1" s="116"/>
     </row>
-    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="22.5">
       <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
@@ -6430,7 +6447,7 @@
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
     </row>
-    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="56.25">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38" t="s">
@@ -6438,7 +6455,7 @@
       </c>
       <c r="D3" s="39"/>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38" t="s">
@@ -6446,7 +6463,7 @@
       </c>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="22.5">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38" t="s">
@@ -6454,13 +6471,13 @@
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="22.5">
       <c r="A7" s="37" t="s">
         <v>58</v>
       </c>
@@ -6470,7 +6487,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="22.5">
       <c r="A8" s="37" t="s">
         <v>60</v>
       </c>
@@ -6482,7 +6499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
@@ -6492,7 +6509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="68.25" thickBot="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
@@ -6502,13 +6519,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13.5" thickBot="1">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="114" t="s">
         <v>67</v>
       </c>
@@ -6516,7 +6533,7 @@
       <c r="C12" s="115"/>
       <c r="D12" s="116"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="37" t="s">
         <v>68</v>
       </c>
@@ -6526,7 +6543,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="37" t="s">
         <v>70</v>
       </c>
@@ -6536,7 +6553,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="37" t="s">
         <v>72</v>
       </c>
@@ -6546,7 +6563,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="37" t="s">
         <v>74</v>
       </c>
@@ -6556,7 +6573,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="22.5">
       <c r="A17" s="37" t="s">
         <v>76</v>
       </c>
@@ -6566,7 +6583,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="37" t="s">
         <v>78</v>
       </c>
@@ -6576,7 +6593,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="37" t="s">
         <v>80</v>
       </c>
@@ -6586,7 +6603,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="22.5">
       <c r="A20" s="37" t="s">
         <v>82</v>
       </c>
@@ -6596,7 +6613,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
     </row>
-    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="22.5">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38" t="s">
@@ -6604,7 +6621,7 @@
       </c>
       <c r="D21" s="39"/>
     </row>
-    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="33.75">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38" t="s">
@@ -6612,7 +6629,7 @@
       </c>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38" t="s">
@@ -6620,7 +6637,7 @@
       </c>
       <c r="D23" s="39"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38" t="s">
@@ -6628,7 +6645,7 @@
       </c>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38" t="s">
@@ -6636,13 +6653,13 @@
       </c>
       <c r="D25" s="39"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="37" t="s">
         <v>89</v>
       </c>
@@ -6652,7 +6669,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="37" t="s">
         <v>91</v>
       </c>
@@ -6662,7 +6679,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="37" t="s">
         <v>93</v>
       </c>
@@ -6672,7 +6689,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="22.5">
       <c r="A30" s="37" t="s">
         <v>95</v>
       </c>
@@ -6682,7 +6699,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="22.5">
       <c r="A31" s="37" t="s">
         <v>97</v>
       </c>
@@ -6692,7 +6709,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="37" t="s">
         <v>99</v>
       </c>
@@ -6702,7 +6719,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="22.5">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38" t="s">
@@ -6712,7 +6729,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="22.5">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
@@ -6722,7 +6739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="33.75">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
@@ -6732,7 +6749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38" t="s">
@@ -6742,7 +6759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="33.75">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
@@ -6752,7 +6769,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="56.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
@@ -6762,7 +6779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="45.75" thickBot="1">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
@@ -6772,13 +6789,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="13.5" thickBot="1">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="117" t="s">
         <v>115</v>
       </c>
@@ -6786,7 +6803,7 @@
       <c r="C41" s="118"/>
       <c r="D41" s="119"/>
     </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="33.75">
       <c r="A42" s="37" t="s">
         <v>116</v>
       </c>
@@ -6796,7 +6813,7 @@
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
     </row>
-    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="56.25">
       <c r="A43" s="37" t="s">
         <v>118</v>
       </c>
@@ -6806,7 +6823,7 @@
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
     </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="45">
       <c r="A44" s="37" t="s">
         <v>120</v>
       </c>
@@ -6816,7 +6833,7 @@
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="22.5">
       <c r="A45" s="37" t="s">
         <v>122</v>
       </c>
@@ -6826,7 +6843,7 @@
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
     </row>
-    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="33.75">
       <c r="A46" s="37" t="s">
         <v>124</v>
       </c>
@@ -6836,7 +6853,7 @@
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
     </row>
-    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="56.25">
       <c r="A47" s="37"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45" t="s">
@@ -6846,7 +6863,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="33.75">
       <c r="A48" s="37"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45" t="s">
@@ -6856,7 +6873,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="56.25">
       <c r="A49" s="37"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45" t="s">
@@ -6866,7 +6883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="79.5" thickBot="1">
       <c r="A50" s="40"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47" t="s">
@@ -6876,13 +6893,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
       <c r="A51" s="43"/>
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
       <c r="A52" s="120" t="s">
         <v>134</v>
       </c>
@@ -6890,7 +6907,7 @@
       <c r="C52" s="121"/>
       <c r="D52" s="122"/>
     </row>
-    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="22.5">
       <c r="A53" s="50" t="s">
         <v>135</v>
       </c>
@@ -6900,7 +6917,7 @@
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
     </row>
-    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="22.5">
       <c r="A54" s="52" t="s">
         <v>137</v>
       </c>
@@ -6910,7 +6927,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="22.5">
       <c r="A55" s="52" t="s">
         <v>139</v>
       </c>
@@ -6920,7 +6937,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="22.5">
       <c r="A56" s="52" t="s">
         <v>141</v>
       </c>
@@ -6930,7 +6947,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
     </row>
-    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="22.5">
       <c r="A57" s="52" t="s">
         <v>143</v>
       </c>
@@ -6940,7 +6957,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
     </row>
-    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="22.5">
       <c r="A58" s="52"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38" t="s">
@@ -6950,7 +6967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="67.5">
       <c r="A59" s="52"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38" t="s">
@@ -6960,7 +6977,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="23.25" thickBot="1">
       <c r="A60" s="52"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38" t="s">
@@ -6970,13 +6987,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1">
       <c r="A61" s="43"/>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
       <c r="A62" s="120" t="s">
         <v>151</v>
       </c>
@@ -6984,7 +7001,7 @@
       <c r="C62" s="121"/>
       <c r="D62" s="122"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="50" t="s">
         <v>152</v>
       </c>
@@ -6994,7 +7011,7 @@
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="52" t="s">
         <v>154</v>
       </c>
@@ -7004,7 +7021,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
     </row>
-    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="45">
       <c r="A65" s="52" t="s">
         <v>156</v>
       </c>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$19:$F$21</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="344">
   <si>
     <t>Cours</t>
   </si>
@@ -1081,6 +1081,12 @@
   </si>
   <si>
     <t>S1_01_RechercheSequentielle/01_AlgorithmesBasiques/01_AlgorithmesBasiques.tex</t>
+  </si>
+  <si>
+    <t>Prise en main</t>
+  </si>
+  <si>
+    <t>consignes/consignes_tp1;20_architecture/ARCHI-002;01_python_bases/PYB-002-bis;01_python_bases/PYB-003-bis;01_python_bases/PYB-004</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1540,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="658">
+  <cellStyleXfs count="660">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2193,8 +2199,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2491,6 +2499,9 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2549,7 +2560,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="658">
+  <cellStyles count="660">
     <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
@@ -2875,6 +2886,7 @@
     <cellStyle name="Lien hypertexte" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="654" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="658" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
@@ -3200,6 +3212,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="659" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
@@ -3551,7 +3564,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="104">
+      <c r="A2" s="105">
         <v>1</v>
       </c>
       <c r="B2" s="68" t="s">
@@ -3565,7 +3578,7 @@
       <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="3" t="s">
         <v>298</v>
       </c>
@@ -3577,7 +3590,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="3" t="s">
         <v>302</v>
       </c>
@@ -3589,7 +3602,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="3" t="s">
         <v>299</v>
       </c>
@@ -3601,7 +3614,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="70" t="s">
         <v>300</v>
       </c>
@@ -3613,7 +3626,7 @@
       <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="104">
+      <c r="A7" s="105">
         <v>2</v>
       </c>
       <c r="B7" s="72" t="s">
@@ -3627,7 +3640,7 @@
       <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="73" t="s">
         <v>298</v>
       </c>
@@ -3639,7 +3652,7 @@
       <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="73" t="s">
         <v>302</v>
       </c>
@@ -3654,7 +3667,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="73" t="s">
         <v>299</v>
       </c>
@@ -3666,7 +3679,7 @@
       <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="74" t="s">
         <v>300</v>
       </c>
@@ -3678,7 +3691,7 @@
       <c r="F11" s="71"/>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="104">
+      <c r="A12" s="105">
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
@@ -3692,7 +3705,7 @@
       <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="76" t="s">
         <v>298</v>
       </c>
@@ -3704,7 +3717,7 @@
       <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="105"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="76" t="s">
         <v>302</v>
       </c>
@@ -3719,7 +3732,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="105"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="76" t="s">
         <v>299</v>
       </c>
@@ -3731,7 +3744,7 @@
       <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="77" t="s">
         <v>300</v>
       </c>
@@ -3762,10 +3775,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3896,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <f>B2+7</f>
+        <f>B4</f>
         <v>44445</v>
       </c>
       <c r="C3" s="92">
@@ -3909,14 +3922,14 @@
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="65" t="s">
-        <v>341</v>
+        <v>320</v>
+      </c>
+      <c r="J3" s="104"/>
+      <c r="K3" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="L3" s="66" t="s">
         <v>289</v>
@@ -3924,9 +3937,9 @@
       <c r="M3" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="104"/>
       <c r="O3" s="25"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="104" t="s">
         <v>35</v>
       </c>
       <c r="Q3" s="31" t="s">
@@ -3939,13 +3952,13 @@
       <c r="V3" s="58"/>
       <c r="W3" s="58"/>
     </row>
-    <row r="4" spans="1:23" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9">
-        <f>B3+7</f>
-        <v>44452</v>
+        <f>B2+7</f>
+        <v>44445</v>
       </c>
       <c r="C4" s="92">
         <v>1</v>
@@ -3954,7 +3967,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="55"/>
       <c r="G4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>318</v>
@@ -3963,9 +3976,11 @@
         <v>322</v>
       </c>
       <c r="J4" s="80"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="56" t="s">
-        <v>245</v>
+      <c r="K4" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>289</v>
       </c>
       <c r="M4" s="66" t="s">
         <v>289</v>
@@ -3985,38 +4000,36 @@
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" ref="B5:B9" si="0">B4+7</f>
-        <v>44459</v>
+        <f>B4+7</f>
+        <v>44452</v>
       </c>
       <c r="C5" s="92">
         <v>1</v>
       </c>
       <c r="D5" s="89"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="11">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J5" s="80"/>
-      <c r="K5" s="65" t="s">
-        <v>338</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="56" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="25"/>
@@ -4033,13 +4046,13 @@
       <c r="V5" s="58"/>
       <c r="W5" s="58"/>
     </row>
-    <row r="6" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9">
-        <f>B5+7</f>
-        <v>44466</v>
+        <f t="shared" ref="B6:B10" si="0">B5+7</f>
+        <v>44459</v>
       </c>
       <c r="C6" s="92">
         <v>1</v>
@@ -4048,7 +4061,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>337</v>
@@ -4057,11 +4070,14 @@
         <v>323</v>
       </c>
       <c r="J6" s="80"/>
-      <c r="L6" s="5" t="s">
-        <v>286</v>
+      <c r="K6" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>242</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="25"/>
@@ -4069,7 +4085,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R6" s="20" t="s">
         <v>285</v>
@@ -4078,15 +4094,17 @@
       <c r="V6" s="58"/>
       <c r="W6" s="58"/>
     </row>
-    <row r="7" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>44473</v>
-      </c>
-      <c r="C7" s="92"/>
+        <f>B6+7</f>
+        <v>44466</v>
+      </c>
+      <c r="C7" s="92">
+        <v>1</v>
+      </c>
       <c r="D7" s="89"/>
       <c r="E7" s="17"/>
       <c r="F7" s="11"/>
@@ -4094,50 +4112,47 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J7" s="80"/>
+      <c r="L7" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="M7" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="21"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="20" t="s">
         <v>285</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="58"/>
       <c r="W7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" si="0"/>
-        <v>44480</v>
-      </c>
-      <c r="C8" s="93">
-        <v>1</v>
-      </c>
-      <c r="D8" s="90"/>
+        <v>44473</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="17"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>319</v>
@@ -4146,53 +4161,53 @@
         <v>320</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>242</v>
+      <c r="K8" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="66" t="s">
+        <v>292</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="U8" s="53"/>
       <c r="V8" s="58"/>
       <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="0"/>
-        <v>44487</v>
-      </c>
-      <c r="C9" s="82">
+        <v>44480</v>
+      </c>
+      <c r="C9" s="93">
         <v>1</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="17"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="86">
+      <c r="G9" s="11">
         <v>4</v>
       </c>
-      <c r="H9" s="86" t="s">
-        <v>324</v>
-      </c>
-      <c r="I9" s="84"/>
+      <c r="H9" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>320</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="65" t="s">
-        <v>338</v>
-      </c>
+      <c r="K9" s="65"/>
       <c r="L9" s="61" t="s">
         <v>244</v>
       </c>
@@ -4200,7 +4215,7 @@
         <v>242</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -4214,89 +4229,93 @@
       <c r="V9" s="58"/>
       <c r="W9" s="58"/>
     </row>
-    <row r="10" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="19"/>
+    <row r="10" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>44487</v>
+      </c>
+      <c r="C10" s="82">
+        <v>1</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="86">
+        <v>5</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="20"/>
       <c r="U10" s="53"/>
       <c r="V10" s="58"/>
       <c r="W10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9">
-        <f>B9+21</f>
-        <v>44508</v>
-      </c>
-      <c r="C11" s="91">
-        <v>1</v>
-      </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
-        <v>5</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="20"/>
+    <row r="11" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="19"/>
       <c r="U11" s="53"/>
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" ref="B12:B16" si="1">B11+7</f>
-        <v>44515</v>
-      </c>
-      <c r="C12" s="92">
+        <f>B10+21</f>
+        <v>44508</v>
+      </c>
+      <c r="C12" s="91">
         <v>1</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="17"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>325</v>
@@ -4307,7 +4326,7 @@
       <c r="J12" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="61" t="s">
         <v>244</v>
       </c>
@@ -4320,17 +4339,18 @@
       <c r="Q12" s="31" t="s">
         <v>42</v>
       </c>
+      <c r="R12" s="20"/>
       <c r="U12" s="53"/>
       <c r="V12" s="58"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" si="1"/>
-        <v>44522</v>
+        <f t="shared" ref="B13:B17" si="1">B12+7</f>
+        <v>44515</v>
       </c>
       <c r="C13" s="92">
         <v>1</v>
@@ -4342,41 +4362,35 @@
         <v>6</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="65" t="s">
-        <v>338</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>309</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="3"/>
       <c r="O13" s="25"/>
       <c r="P13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="R13" s="20"/>
+        <v>42</v>
+      </c>
       <c r="U13" s="53"/>
       <c r="V13" s="58"/>
       <c r="W13" s="58"/>
     </row>
-    <row r="14" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" si="1"/>
-        <v>44529</v>
+        <v>44522</v>
       </c>
       <c r="C14" s="92">
         <v>1</v>
@@ -4385,7 +4399,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>326</v>
@@ -4394,7 +4408,9 @@
         <v>320</v>
       </c>
       <c r="J14" s="80"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L14" s="61" t="s">
         <v>243</v>
       </c>
@@ -4409,17 +4425,18 @@
       <c r="Q14" s="31" t="s">
         <v>308</v>
       </c>
+      <c r="R14" s="20"/>
       <c r="U14" s="53"/>
       <c r="V14" s="58"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" si="1"/>
-        <v>44536</v>
+        <v>44529</v>
       </c>
       <c r="C15" s="92">
         <v>1</v>
@@ -4427,151 +4444,150 @@
       <c r="D15" s="89"/>
       <c r="E15" s="17"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="86">
+      <c r="G15" s="11">
         <v>7</v>
       </c>
-      <c r="H15" s="86" t="s">
-        <v>324</v>
+      <c r="H15" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="L15" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="M15" s="61" t="s">
+      <c r="J15" s="80"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="M15" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="O15" s="25"/>
       <c r="P15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="20"/>
+        <v>308</v>
+      </c>
       <c r="U15" s="53"/>
       <c r="V15" s="58"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" si="1"/>
-        <v>44543</v>
-      </c>
-      <c r="C16" s="93">
+        <v>44536</v>
+      </c>
+      <c r="C16" s="92">
         <v>1</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="17"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="G16" s="86">
         <v>8</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>327</v>
+      <c r="H16" s="86" t="s">
+        <v>324</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L16" s="66" t="s">
         <v>240</v>
       </c>
       <c r="M16" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="21"/>
+      <c r="N16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="25"/>
       <c r="P16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="19"/>
+      <c r="R16" s="20"/>
       <c r="U16" s="53"/>
       <c r="V16" s="58"/>
       <c r="W16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="24"/>
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="1"/>
+        <v>44543</v>
+      </c>
+      <c r="C17" s="93">
+        <v>1</v>
+      </c>
+      <c r="D17" s="90"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <v>9</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="80"/>
+      <c r="K17" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="R17" s="19"/>
       <c r="U17" s="53"/>
       <c r="V17" s="58"/>
       <c r="W17" s="58"/>
     </row>
-    <row r="18" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9">
-        <f>B16+21</f>
-        <v>44564</v>
-      </c>
-      <c r="C18" s="91">
-        <v>1</v>
-      </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
-        <v>8</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="L18" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="M18" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" s="20"/>
+    <row r="18" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="19"/>
       <c r="U18" s="53"/>
       <c r="V18" s="58"/>
       <c r="W18" s="58"/>
@@ -4581,26 +4597,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="9">
-        <f>B18+7</f>
-        <v>44571</v>
-      </c>
-      <c r="C19" s="92">
+        <f>B17+21</f>
+        <v>44564</v>
+      </c>
+      <c r="C19" s="91">
         <v>1</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="17"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
         <v>9</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>322</v>
       </c>
       <c r="J19" s="18"/>
-      <c r="K19" s="5"/>
       <c r="L19" s="67" t="s">
         <v>311</v>
       </c>
@@ -4625,8 +4640,8 @@
         <v>16</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" ref="B20:B41" si="2">B19+7</f>
-        <v>44578</v>
+        <f>B19+7</f>
+        <v>44571</v>
       </c>
       <c r="C20" s="92">
         <v>1</v>
@@ -4635,31 +4650,33 @@
       <c r="E20" s="17"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>322</v>
+      </c>
       <c r="J20" s="86" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="L20" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="3" t="s">
+      <c r="L20" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="18" t="s">
         <v>160</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R20" s="20"/>
       <c r="U20" s="53"/>
@@ -4671,29 +4688,27 @@
         <v>17</v>
       </c>
       <c r="B21" s="9">
-        <f>B20+7</f>
-        <v>44585</v>
-      </c>
-      <c r="C21" s="93">
+        <f t="shared" ref="B21:B42" si="2">B20+7</f>
+        <v>44578</v>
+      </c>
+      <c r="C21" s="92">
         <v>1</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="17"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="86">
+      <c r="G21" s="11">
         <v>10</v>
       </c>
-      <c r="H21" s="86" t="s">
-        <v>324</v>
+      <c r="H21" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="5"/>
       <c r="L21" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="M21" s="56" t="s">
-        <v>241</v>
+      <c r="M21" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="25"/>
@@ -4708,50 +4723,46 @@
       <c r="V21" s="58"/>
       <c r="W21" s="58"/>
     </row>
-    <row r="22" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="94">
+      <c r="B22" s="9">
         <f>B21+7</f>
-        <v>44592</v>
-      </c>
-      <c r="C22" s="95">
+        <v>44585</v>
+      </c>
+      <c r="C22" s="93">
         <v>1</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="D22" s="90"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="86">
         <v>11</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="I22" s="12"/>
+      <c r="H22" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="11"/>
       <c r="J22" s="80"/>
       <c r="K22" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="L22" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="M22" s="66" t="s">
-        <v>312</v>
+      <c r="L22" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>241</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="25"/>
       <c r="P22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R22" s="19"/>
+        <v>160</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22" s="20"/>
       <c r="U22" s="53"/>
       <c r="V22" s="58"/>
       <c r="W22" s="58"/>
@@ -4762,7 +4773,7 @@
       </c>
       <c r="B23" s="94">
         <f>B22+7</f>
-        <v>44599</v>
+        <v>44592</v>
       </c>
       <c r="C23" s="95">
         <v>1</v>
@@ -4775,7 +4786,7 @@
         <v>329</v>
       </c>
       <c r="G23" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>329</v>
@@ -4791,9 +4802,9 @@
       <c r="M23" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="N23" s="80"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="80" t="s">
+      <c r="P23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q23" s="35" t="s">
@@ -4805,85 +4816,90 @@
       <c r="W23" s="58"/>
     </row>
     <row r="24" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="33"/>
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="94">
+        <f>B23+7</f>
+        <v>44599</v>
+      </c>
+      <c r="C24" s="95">
+        <v>1</v>
+      </c>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="12">
+        <v>12</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L24" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="N24" s="80"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>46</v>
+      </c>
       <c r="R24" s="19"/>
       <c r="U24" s="53"/>
       <c r="V24" s="58"/>
       <c r="W24" s="58"/>
     </row>
-    <row r="25" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>19</v>
-      </c>
-      <c r="B25" s="94">
-        <f>B23+21</f>
-        <v>44620</v>
-      </c>
-      <c r="C25" s="111">
-        <v>1</v>
-      </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G25" s="12">
+    <row r="25" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" s="25"/>
-      <c r="P25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R25" s="20"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="19"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
     </row>
     <row r="26" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="94">
-        <f>B25+7</f>
-        <v>44627</v>
-      </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="98"/>
+        <f>B24+21</f>
+        <v>44620</v>
+      </c>
+      <c r="C26" s="112">
+        <v>1</v>
+      </c>
+      <c r="D26" s="96"/>
       <c r="E26" s="97">
         <v>2</v>
       </c>
@@ -4894,82 +4910,81 @@
         <v>12</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="65" t="s">
-        <v>338</v>
-      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="66" t="s">
         <v>313</v>
       </c>
       <c r="M26" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="N26" s="18"/>
+        <v>312</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O26" s="25"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="Q26" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="94">
         <f>B26+7</f>
-        <v>44634</v>
-      </c>
-      <c r="C27" s="112"/>
+        <v>44627</v>
+      </c>
+      <c r="C27" s="113"/>
       <c r="D27" s="98"/>
       <c r="E27" s="97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G27" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>330</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="5"/>
+      <c r="J27" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L27" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M27" s="66" t="s">
         <v>313</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="25"/>
-      <c r="P27" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="P27" s="3"/>
       <c r="Q27" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="R27" s="19"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-    </row>
-    <row r="28" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="20"/>
+    </row>
+    <row r="28" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="94">
-        <f t="shared" si="2"/>
-        <v>44641</v>
-      </c>
-      <c r="C28" s="112"/>
+        <f>B27+7</f>
+        <v>44634</v>
+      </c>
+      <c r="C28" s="113"/>
       <c r="D28" s="98"/>
       <c r="E28" s="97">
         <v>3</v>
@@ -4981,263 +4996,259 @@
         <v>13</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="K28" s="65" t="s">
-        <v>338</v>
-      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="66" t="s">
         <v>314</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="N28" s="18"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="Q28" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="R28" s="19"/>
       <c r="U28" s="53"/>
       <c r="V28" s="58"/>
       <c r="W28" s="58"/>
     </row>
-    <row r="29" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="94">
         <f t="shared" si="2"/>
-        <v>44648</v>
-      </c>
-      <c r="C29" s="112"/>
+        <v>44641</v>
+      </c>
+      <c r="C29" s="113"/>
       <c r="D29" s="98"/>
       <c r="E29" s="97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="G29" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>331</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L29" s="66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M29" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="N29" s="4"/>
       <c r="O29" s="21"/>
-      <c r="P29" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="P29" s="4"/>
       <c r="Q29" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="19"/>
+      <c r="R29" s="20"/>
       <c r="U29" s="53"/>
       <c r="V29" s="58"/>
       <c r="W29" s="58"/>
     </row>
-    <row r="30" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="94">
         <f t="shared" si="2"/>
-        <v>44655</v>
+        <v>44648</v>
       </c>
       <c r="C30" s="113"/>
-      <c r="D30" s="99"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="97">
         <v>4</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="86">
-        <v>17</v>
-      </c>
-      <c r="H30" s="87" t="s">
-        <v>324</v>
+      <c r="G30" s="12">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="65" t="s">
-        <v>338</v>
-      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="66" t="s">
         <v>316</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="Q30" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="R30" s="19"/>
       <c r="U30" s="53"/>
       <c r="V30" s="58"/>
       <c r="W30" s="58"/>
     </row>
-    <row r="31" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="94">
         <f t="shared" si="2"/>
-        <v>44662</v>
-      </c>
-      <c r="C31" s="95">
-        <v>1</v>
-      </c>
-      <c r="D31" s="96"/>
+        <v>44655</v>
+      </c>
+      <c r="C31" s="114"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="12">
+        <v>24</v>
+      </c>
+      <c r="G31" s="86">
         <v>15</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>24</v>
+      <c r="H31" s="87" t="s">
+        <v>324</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="56" t="s">
-        <v>236</v>
+      <c r="J31" s="80"/>
+      <c r="K31" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L31" s="66" t="s">
+        <v>316</v>
       </c>
       <c r="M31" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="N31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="21"/>
-      <c r="P31" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="19"/>
+      <c r="R31" s="20"/>
       <c r="U31" s="53"/>
       <c r="V31" s="58"/>
       <c r="W31" s="58"/>
     </row>
     <row r="32" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="34"/>
+      <c r="A32" s="1">
+        <v>25</v>
+      </c>
+      <c r="B32" s="94">
+        <f t="shared" si="2"/>
+        <v>44662</v>
+      </c>
+      <c r="C32" s="95">
+        <v>1</v>
+      </c>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97">
+        <v>5</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="12">
+        <v>16</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="21"/>
+      <c r="P32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="R32" s="19"/>
       <c r="U32" s="53"/>
       <c r="V32" s="58"/>
       <c r="W32" s="58"/>
     </row>
     <row r="33" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>26</v>
-      </c>
-      <c r="B33" s="94">
-        <f>B31+21</f>
-        <v>44683</v>
-      </c>
-      <c r="C33" s="95">
-        <v>1</v>
-      </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97">
-        <v>5</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="12">
-        <v>15</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="100"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="L33" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="M33" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="A33" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="34"/>
       <c r="R33" s="19"/>
       <c r="U33" s="53"/>
       <c r="V33" s="58"/>
       <c r="W33" s="58"/>
     </row>
-    <row r="34" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="94">
-        <f>B33+7</f>
-        <v>44690</v>
-      </c>
-      <c r="C34" s="102">
+        <f>B32+21</f>
+        <v>44683</v>
+      </c>
+      <c r="C34" s="95">
         <v>1</v>
       </c>
-      <c r="D34" s="98"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G34" s="100">
+        <v>23</v>
+      </c>
+      <c r="G34" s="12">
         <v>16</v>
       </c>
-      <c r="H34" s="100" t="s">
-        <v>23</v>
+      <c r="H34" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="I34" s="100"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="65" t="s">
         <v>338</v>
       </c>
@@ -5245,23 +5256,28 @@
         <v>238</v>
       </c>
       <c r="M34" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="Q34" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R34" s="20"/>
-    </row>
-    <row r="35" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R34" s="19"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+    </row>
+    <row r="35" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="94">
-        <f t="shared" si="2"/>
-        <v>44697</v>
+        <f>B34+7</f>
+        <v>44690</v>
       </c>
       <c r="C35" s="102">
         <v>1</v>
@@ -5274,162 +5290,168 @@
         <v>335</v>
       </c>
       <c r="G35" s="100">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="101"/>
-      <c r="J35" s="86" t="s">
-        <v>30</v>
-      </c>
+      <c r="I35" s="100"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="L35" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="M35" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="N35" s="4"/>
+      <c r="L35" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="M35" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="N35" s="6"/>
       <c r="O35" s="27"/>
-      <c r="P35" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="P35" s="3"/>
       <c r="Q35" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="R35" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="R35" s="20"/>
     </row>
     <row r="36" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="94">
         <f t="shared" si="2"/>
-        <v>44704</v>
-      </c>
-      <c r="C36" s="103">
+        <v>44697</v>
+      </c>
+      <c r="C36" s="102">
         <v>1</v>
       </c>
-      <c r="D36" s="99"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="97">
         <v>6</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="G36" s="86">
+      <c r="G36" s="100">
         <v>17</v>
       </c>
-      <c r="H36" s="87" t="s">
-        <v>324</v>
-      </c>
-      <c r="I36" s="85"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="M36" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="O36" s="21"/>
-      <c r="P36" s="61" t="s">
+      <c r="H36" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="101"/>
+      <c r="J36" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="Q36" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="19"/>
+    </row>
+    <row r="37" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="94">
         <f t="shared" si="2"/>
-        <v>44711</v>
-      </c>
-      <c r="C37" s="95">
+        <v>44704</v>
+      </c>
+      <c r="C37" s="103">
         <v>1</v>
       </c>
-      <c r="D37" s="96"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="97">
         <v>6</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="G37" s="100">
+      <c r="G37" s="86">
         <v>18</v>
       </c>
-      <c r="H37" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="I37" s="100"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="79" t="s">
-        <v>37</v>
+      <c r="H37" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="I37" s="85"/>
+      <c r="K37" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" s="21"/>
+      <c r="P37" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="Q37" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R37" s="20"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-    </row>
-    <row r="38" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R37" s="29"/>
+    </row>
+    <row r="38" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="94">
         <f t="shared" si="2"/>
-        <v>44718</v>
-      </c>
-      <c r="C38" s="102">
+        <v>44711</v>
+      </c>
+      <c r="C38" s="95">
         <v>1</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97">
+        <v>6</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="G38" s="100">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" s="100" t="s">
         <v>332</v>
       </c>
-      <c r="I38" s="101"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="22"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
-      <c r="N38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="4"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="79" t="s">
+        <v>37</v>
+      </c>
       <c r="Q38" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R38" s="29"/>
+      <c r="R38" s="20"/>
       <c r="U38" s="53"/>
       <c r="V38" s="58"/>
       <c r="W38" s="58"/>
     </row>
-    <row r="39" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="94">
         <f t="shared" si="2"/>
-        <v>44725</v>
+        <v>44718</v>
       </c>
       <c r="C39" s="102">
         <v>1</v>
@@ -5441,31 +5463,33 @@
         <v>19</v>
       </c>
       <c r="H39" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="100"/>
+        <v>332</v>
+      </c>
+      <c r="I39" s="101"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="4"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="O39" s="21"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R39" s="20"/>
+      <c r="R39" s="29"/>
       <c r="U39" s="53"/>
       <c r="V39" s="58"/>
       <c r="W39" s="58"/>
     </row>
-    <row r="40" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="94">
         <f t="shared" si="2"/>
-        <v>44732</v>
+        <v>44725</v>
       </c>
       <c r="C40" s="102">
         <v>1</v>
@@ -5473,86 +5497,123 @@
       <c r="D40" s="98"/>
       <c r="E40" s="97"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="86">
-        <v>17</v>
-      </c>
-      <c r="H40" s="87" t="s">
-        <v>324</v>
+      <c r="G40" s="100">
+        <v>20</v>
+      </c>
+      <c r="H40" s="100" t="s">
+        <v>27</v>
       </c>
       <c r="I40" s="100"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="5"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="18"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R40" s="29"/>
+      <c r="R40" s="20"/>
       <c r="U40" s="53"/>
       <c r="V40" s="58"/>
       <c r="W40" s="58"/>
     </row>
-    <row r="41" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="94">
         <f t="shared" si="2"/>
-        <v>44739</v>
-      </c>
-      <c r="C41" s="103">
+        <v>44732</v>
+      </c>
+      <c r="C41" s="102">
         <v>1</v>
       </c>
-      <c r="D41" s="99"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="97"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="100">
-        <v>19</v>
-      </c>
-      <c r="H41" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="101"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="P41" s="3"/>
+      <c r="G41" s="86">
+        <v>21</v>
+      </c>
+      <c r="H41" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" s="100"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="18"/>
       <c r="Q41" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R41" s="20"/>
+      <c r="R41" s="29"/>
       <c r="U41" s="53"/>
       <c r="V41" s="58"/>
       <c r="W41" s="58"/>
     </row>
-    <row r="42" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="34"/>
+    <row r="42" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>34</v>
+      </c>
+      <c r="B42" s="94">
+        <f t="shared" si="2"/>
+        <v>44739</v>
+      </c>
+      <c r="C42" s="103">
+        <v>1</v>
+      </c>
+      <c r="D42" s="99"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="100">
+        <v>22</v>
+      </c>
+      <c r="H42" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="101"/>
+      <c r="K42" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="R42" s="20"/>
       <c r="U42" s="53"/>
       <c r="V42" s="58"/>
       <c r="W42" s="58"/>
     </row>
     <row r="43" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="34"/>
       <c r="U43" s="53"/>
       <c r="V43" s="58"/>
       <c r="W43" s="58"/>
@@ -5612,14 +5673,19 @@
       <c r="V54" s="58"/>
       <c r="W54" s="58"/>
     </row>
+    <row r="55" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U55" s="53"/>
+      <c r="V55" s="58"/>
+      <c r="W55" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="A24:O24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A33:O33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6413,12 +6479,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
@@ -6509,12 +6575,12 @@
       <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="37" t="s">
@@ -6779,12 +6845,12 @@
       <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="120"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="37" t="s">
@@ -6883,12 +6949,12 @@
       <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="50" t="s">
@@ -6977,12 +7043,12 @@
       <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="122"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="123"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="50" t="s">

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PESSOLES_LOCAL\GitHub\Informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="460" windowWidth="17180" windowHeight="14320" activeTab="1"/>
+    <workbookView xWindow="8415" yWindow="465" windowWidth="17175" windowHeight="14325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$19:$F$21</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="347">
   <si>
     <t>Cours</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Supports TP</t>
-  </si>
-  <si>
-    <t>Fond_ARCH</t>
   </si>
   <si>
     <t>Fond_ALG</t>
@@ -1077,9 +1074,6 @@
     <t>XP Google form avec lien sur le site</t>
   </si>
   <si>
-    <t>consignes/consignes_tp00</t>
-  </si>
-  <si>
     <t>S1_01_RechercheSequentielle/01_AlgorithmesBasiques/01_AlgorithmesBasiques.tex</t>
   </si>
   <si>
@@ -1087,13 +1081,28 @@
   </si>
   <si>
     <t>consignes/consignes_tp1;20_architecture/ARCHI-002;01_python_bases/PYB-002-bis;01_python_bases/PYB-003-bis;01_python_bases/PYB-004</t>
+  </si>
+  <si>
+    <t>S1_00_QCM/consignes_tp00</t>
+  </si>
+  <si>
+    <t>S1.C0</t>
+  </si>
+  <si>
+    <t>logo_python</t>
+  </si>
+  <si>
+    <t>Connaître les bases de l'algorithmique et de la programmation (variable, types, structures, fonctions).</t>
+  </si>
+  <si>
+    <t>Theme 0 - Validation des connaissances</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2202,7 +2211,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2498,6 +2507,9 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3539,72 +3551,72 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="63">
+      <c r="A2" s="106">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="105">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>297</v>
-      </c>
       <c r="C2" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
+    <row r="3" spans="1:8" ht="89.25">
+      <c r="A3" s="107"/>
       <c r="B3" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="107"/>
       <c r="B4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>302</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>303</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="25"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="107"/>
       <c r="B5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -3613,10 +3625,10 @@
       <c r="E5" s="25"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
+      <c r="A6" s="108"/>
       <c r="B6" s="70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" s="71">
         <v>43754</v>
@@ -3625,51 +3637,51 @@
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="105">
+    <row r="7" spans="1:8" ht="63">
+      <c r="A7" s="106">
         <v>2</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
     </row>
-    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
+    <row r="8" spans="1:8" ht="38.25">
+      <c r="A8" s="107"/>
       <c r="B8" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="107"/>
       <c r="B9" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="25"/>
       <c r="F9" s="73"/>
       <c r="H9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="107"/>
       <c r="B10" s="73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
@@ -3678,10 +3690,10 @@
       <c r="E10" s="25"/>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
+      <c r="A11" s="108"/>
       <c r="B11" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="71">
         <v>43798</v>
@@ -3690,51 +3702,51 @@
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="105">
+    <row r="12" spans="1:8" ht="63">
+      <c r="A12" s="106">
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
+    <row r="13" spans="1:8" ht="25.5">
+      <c r="A13" s="107"/>
       <c r="B13" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
     </row>
-    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
+    <row r="14" spans="1:8" ht="25.5">
+      <c r="A14" s="107"/>
       <c r="B14" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="25"/>
       <c r="F14" s="76"/>
       <c r="H14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="107"/>
       <c r="B15" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -3743,10 +3755,10 @@
       <c r="E15" s="25"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
+      <c r="A16" s="108"/>
       <c r="B16" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="71">
         <v>43798</v>
@@ -3755,9 +3767,9 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3772,36 +3784,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="26.1" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="37.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="32.6640625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="10.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="41.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="1"/>
-    <col min="21" max="21" width="10.83203125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="58.5" style="57" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="37.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="32.7109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="41.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="1"/>
+    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="58.42578125" style="57" customWidth="1"/>
+    <col min="24" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="26.1" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -3836,10 +3848,10 @@
         <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -3848,16 +3860,16 @@
         <v>18</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="32.1" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3874,37 +3886,37 @@
         <v>0</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J2" s="80"/>
       <c r="K2" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="25"/>
-      <c r="P2" s="3" t="s">
-        <v>34</v>
+      <c r="P2" s="105" t="s">
+        <v>344</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U2" s="53"/>
       <c r="V2" s="58"/>
       <c r="W2" s="58"/>
     </row>
-    <row r="3" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="32.1" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3922,37 +3934,37 @@
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J3" s="104"/>
       <c r="K3" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M3" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N3" s="104"/>
       <c r="O3" s="25"/>
-      <c r="P3" s="104" t="s">
-        <v>35</v>
+      <c r="P3" s="105" t="s">
+        <v>344</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U3" s="53"/>
       <c r="V3" s="58"/>
       <c r="W3" s="58"/>
     </row>
-    <row r="4" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="32.1" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3970,37 +3982,37 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J4" s="80"/>
       <c r="K4" s="65" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L4" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M4" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="25"/>
       <c r="P4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="56.1" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4018,35 +4030,35 @@
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J5" s="80"/>
       <c r="K5" s="5"/>
       <c r="L5" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="25"/>
       <c r="P5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="58"/>
       <c r="W5" s="58"/>
     </row>
-    <row r="6" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="32.1" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4064,37 +4076,37 @@
         <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J6" s="80"/>
       <c r="K6" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="25"/>
       <c r="P6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="58"/>
       <c r="W6" s="58"/>
     </row>
-    <row r="7" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="26.1" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4112,34 +4124,34 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J7" s="80"/>
       <c r="L7" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="25"/>
       <c r="P7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="58"/>
       <c r="W7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="26.1" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4155,35 +4167,35 @@
         <v>4</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="84" t="s">
         <v>319</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>320</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
       <c r="P8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="58"/>
       <c r="W8" s="58"/>
     </row>
-    <row r="9" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="66" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4201,35 +4213,35 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" s="84" t="s">
         <v>319</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>320</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="65"/>
       <c r="L9" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R9" s="20"/>
       <c r="U9" s="53"/>
       <c r="V9" s="58"/>
       <c r="W9" s="58"/>
     </row>
-    <row r="10" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="66" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4247,52 +4259,52 @@
         <v>5</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I10" s="84"/>
       <c r="J10" s="4"/>
       <c r="K10" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L10" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="20"/>
       <c r="U10" s="53"/>
       <c r="V10" s="58"/>
       <c r="W10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:23" ht="26.1" customHeight="1">
+      <c r="A11" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="19"/>
@@ -4300,7 +4312,7 @@
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="26.1" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4318,33 +4330,33 @@
         <v>6</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J12" s="86" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="65"/>
       <c r="L12" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="3"/>
       <c r="O12" s="25"/>
       <c r="P12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R12" s="20"/>
       <c r="U12" s="53"/>
       <c r="V12" s="58"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="26.1" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4362,29 +4374,29 @@
         <v>6</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="3"/>
       <c r="O13" s="25"/>
       <c r="P13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U13" s="53"/>
       <c r="V13" s="58"/>
       <c r="W13" s="58"/>
     </row>
-    <row r="14" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="26.1" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4402,35 +4414,35 @@
         <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J14" s="80"/>
       <c r="K14" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="25"/>
       <c r="P14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R14" s="20"/>
       <c r="U14" s="53"/>
       <c r="V14" s="58"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="26.1" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4448,32 +4460,32 @@
         <v>7</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J15" s="80"/>
       <c r="K15" s="5"/>
       <c r="L15" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="25"/>
       <c r="P15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U15" s="53"/>
       <c r="V15" s="58"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="26.1" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4491,37 +4503,37 @@
         <v>8</v>
       </c>
       <c r="H16" s="86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L16" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R16" s="20"/>
       <c r="U16" s="53"/>
       <c r="V16" s="58"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="26.1" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4539,52 +4551,52 @@
         <v>9</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J17" s="80"/>
       <c r="K17" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="21"/>
       <c r="P17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R17" s="19"/>
       <c r="U17" s="53"/>
       <c r="V17" s="58"/>
       <c r="W17" s="58"/>
     </row>
-    <row r="18" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:23" ht="26.1" customHeight="1">
+      <c r="A18" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="19"/>
@@ -4592,7 +4604,7 @@
       <c r="V18" s="58"/>
       <c r="W18" s="58"/>
     </row>
-    <row r="19" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="26.1" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4610,32 +4622,32 @@
         <v>9</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J19" s="18"/>
       <c r="L19" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="26"/>
       <c r="P19" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R19" s="20"/>
       <c r="U19" s="53"/>
       <c r="V19" s="58"/>
       <c r="W19" s="58"/>
     </row>
-    <row r="20" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="26.1" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4653,37 +4665,37 @@
         <v>10</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J20" s="86" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L20" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="26"/>
       <c r="P20" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20" s="20"/>
       <c r="U20" s="53"/>
       <c r="V20" s="58"/>
       <c r="W20" s="58"/>
     </row>
-    <row r="21" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="26.1" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4701,29 +4713,29 @@
         <v>10</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I21" s="11"/>
       <c r="L21" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="25"/>
       <c r="P21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R21" s="20"/>
       <c r="U21" s="53"/>
       <c r="V21" s="58"/>
       <c r="W21" s="58"/>
     </row>
-    <row r="22" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="26.1" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4741,33 +4753,33 @@
         <v>11</v>
       </c>
       <c r="H22" s="86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="80"/>
       <c r="K22" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M22" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="25"/>
       <c r="P22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R22" s="20"/>
       <c r="U22" s="53"/>
       <c r="V22" s="58"/>
       <c r="W22" s="58"/>
     </row>
-    <row r="23" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="26.1" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4783,39 +4795,39 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G23" s="12">
         <v>12</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="80"/>
       <c r="K23" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L23" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M23" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="25"/>
       <c r="P23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" s="19"/>
       <c r="U23" s="53"/>
       <c r="V23" s="58"/>
       <c r="W23" s="58"/>
     </row>
-    <row r="24" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="26.1" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4831,56 +4843,56 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G24" s="12">
         <v>12</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="80"/>
       <c r="K24" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L24" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M24" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N24" s="80"/>
       <c r="O24" s="25"/>
       <c r="P24" s="80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" s="19"/>
       <c r="U24" s="53"/>
       <c r="V24" s="58"/>
       <c r="W24" s="58"/>
     </row>
-    <row r="25" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:23" ht="26.1" customHeight="1">
+      <c r="A25" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="19"/>
@@ -4888,7 +4900,7 @@
       <c r="V25" s="58"/>
       <c r="W25" s="58"/>
     </row>
-    <row r="26" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="26.1" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -4896,7 +4908,7 @@
         <f>B24+21</f>
         <v>44620</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="113">
         <v>1</v>
       </c>
       <c r="D26" s="96"/>
@@ -4904,36 +4916,36 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G26" s="12">
         <v>12</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M26" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O26" s="25"/>
       <c r="P26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="26.1" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -4941,42 +4953,42 @@
         <f>B26+7</f>
         <v>44627</v>
       </c>
-      <c r="C27" s="113"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="98"/>
       <c r="E27" s="97">
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G27" s="12">
         <v>13</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="86" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L27" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="25"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="26.1" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -4984,43 +4996,43 @@
         <f>B27+7</f>
         <v>44634</v>
       </c>
-      <c r="C28" s="113"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="98"/>
       <c r="E28" s="97">
         <v>3</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G28" s="12">
         <v>13</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="18"/>
       <c r="K28" s="5"/>
       <c r="L28" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="25"/>
       <c r="P28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R28" s="19"/>
       <c r="U28" s="53"/>
       <c r="V28" s="58"/>
       <c r="W28" s="58"/>
     </row>
-    <row r="29" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="26.1" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -5028,41 +5040,41 @@
         <f t="shared" si="2"/>
         <v>44641</v>
       </c>
-      <c r="C29" s="113"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="98"/>
       <c r="E29" s="97">
         <v>3</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G29" s="12">
         <v>14</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I29" s="12"/>
       <c r="K29" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L29" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R29" s="20"/>
       <c r="U29" s="53"/>
       <c r="V29" s="58"/>
       <c r="W29" s="58"/>
     </row>
-    <row r="30" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="26.1" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -5070,7 +5082,7 @@
         <f t="shared" si="2"/>
         <v>44648</v>
       </c>
-      <c r="C30" s="113"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="98"/>
       <c r="E30" s="97">
         <v>4</v>
@@ -5082,31 +5094,31 @@
         <v>14</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="21"/>
       <c r="P30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R30" s="19"/>
       <c r="U30" s="53"/>
       <c r="V30" s="58"/>
       <c r="W30" s="58"/>
     </row>
-    <row r="31" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="26.1" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -5114,7 +5126,7 @@
         <f t="shared" si="2"/>
         <v>44655</v>
       </c>
-      <c r="C31" s="114"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="99"/>
       <c r="E31" s="97">
         <v>4</v>
@@ -5126,31 +5138,31 @@
         <v>15</v>
       </c>
       <c r="H31" s="87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="80"/>
       <c r="K31" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L31" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M31" s="66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="25"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R31" s="20"/>
       <c r="U31" s="53"/>
       <c r="V31" s="58"/>
       <c r="W31" s="58"/>
     </row>
-    <row r="32" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="26.1" customHeight="1">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -5178,44 +5190,44 @@
       <c r="J32" s="4"/>
       <c r="K32" s="5"/>
       <c r="L32" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O32" s="21"/>
       <c r="P32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R32" s="19"/>
       <c r="U32" s="53"/>
       <c r="V32" s="58"/>
       <c r="W32" s="58"/>
     </row>
-    <row r="33" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="110" t="s">
+    <row r="33" spans="1:23" ht="26.1" customHeight="1">
+      <c r="A33" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="19"/>
@@ -5223,7 +5235,7 @@
       <c r="V33" s="58"/>
       <c r="W33" s="58"/>
     </row>
-    <row r="34" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="26.1" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -5250,28 +5262,28 @@
       <c r="I34" s="100"/>
       <c r="J34" s="18"/>
       <c r="K34" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L34" s="56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M34" s="56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R34" s="19"/>
       <c r="U34" s="53"/>
       <c r="V34" s="58"/>
       <c r="W34" s="58"/>
     </row>
-    <row r="35" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="26.1" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -5287,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G35" s="100">
         <v>17</v>
@@ -5298,23 +5310,23 @@
       <c r="I35" s="100"/>
       <c r="J35" s="6"/>
       <c r="K35" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L35" s="56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M35" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="27"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R35" s="20"/>
     </row>
-    <row r="36" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="26.1" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5330,7 +5342,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G36" s="100">
         <v>17</v>
@@ -5343,22 +5355,22 @@
         <v>30</v>
       </c>
       <c r="L36" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M36" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="27"/>
       <c r="P36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R36" s="19"/>
     </row>
-    <row r="37" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="26.1" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5374,34 +5386,34 @@
         <v>6</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G37" s="86">
         <v>18</v>
       </c>
       <c r="H37" s="87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I37" s="85"/>
       <c r="K37" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L37" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O37" s="21"/>
       <c r="P37" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R37" s="29"/>
     </row>
-    <row r="38" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="26.1" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5417,35 +5429,35 @@
         <v>6</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G38" s="100">
         <v>19</v>
       </c>
       <c r="H38" s="100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I38" s="100"/>
       <c r="J38" s="7"/>
       <c r="K38" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="7"/>
       <c r="O38" s="28"/>
       <c r="P38" s="79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R38" s="20"/>
       <c r="U38" s="53"/>
       <c r="V38" s="58"/>
       <c r="W38" s="58"/>
     </row>
-    <row r="39" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="26.1" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5463,7 +5475,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I39" s="101"/>
       <c r="J39" s="4"/>
@@ -5476,14 +5488,14 @@
       <c r="O39" s="21"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R39" s="29"/>
       <c r="U39" s="53"/>
       <c r="V39" s="58"/>
       <c r="W39" s="58"/>
     </row>
-    <row r="40" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="26.1" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5506,7 +5518,7 @@
       <c r="I40" s="100"/>
       <c r="J40" s="4"/>
       <c r="K40" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -5514,14 +5526,14 @@
       <c r="O40" s="21"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R40" s="20"/>
       <c r="U40" s="53"/>
       <c r="V40" s="58"/>
       <c r="W40" s="58"/>
     </row>
-    <row r="41" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="26.1" customHeight="1">
       <c r="A41" s="1">
         <v>33</v>
       </c>
@@ -5539,12 +5551,12 @@
         <v>21</v>
       </c>
       <c r="H41" s="87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I41" s="100"/>
       <c r="J41" s="18"/>
       <c r="K41" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -5552,14 +5564,14 @@
       <c r="O41" s="26"/>
       <c r="P41" s="18"/>
       <c r="Q41" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R41" s="29"/>
       <c r="U41" s="53"/>
       <c r="V41" s="58"/>
       <c r="W41" s="58"/>
     </row>
-    <row r="42" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="26.1" customHeight="1">
       <c r="A42" s="1">
         <v>34</v>
       </c>
@@ -5581,99 +5593,99 @@
       </c>
       <c r="I42" s="101"/>
       <c r="K42" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R42" s="20"/>
       <c r="U42" s="53"/>
       <c r="V42" s="58"/>
       <c r="W42" s="58"/>
     </row>
-    <row r="43" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="110" t="s">
+    <row r="43" spans="1:23" ht="26.1" customHeight="1">
+      <c r="A43" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="34"/>
       <c r="U43" s="53"/>
       <c r="V43" s="58"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="26.1" customHeight="1">
       <c r="U44" s="53"/>
       <c r="V44" s="58"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="26.1" customHeight="1">
       <c r="U45" s="53"/>
       <c r="V45" s="58"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="26.1" customHeight="1">
       <c r="U46" s="53"/>
       <c r="V46" s="58"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="26.1" customHeight="1">
       <c r="U47" s="53"/>
       <c r="V47" s="58"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="26.1" customHeight="1">
       <c r="U48" s="53"/>
       <c r="V48" s="58"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="21:23" ht="26.1" customHeight="1">
       <c r="U49" s="53"/>
       <c r="V49" s="58"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="21:23" ht="26.1" customHeight="1">
       <c r="U50" s="53"/>
       <c r="V50" s="58"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="21:23" ht="26.1" customHeight="1">
       <c r="U51" s="53"/>
       <c r="V51" s="58"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="21:23" ht="26.1" customHeight="1">
       <c r="U52" s="53"/>
       <c r="V52" s="58"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="21:23" ht="26.1" customHeight="1">
       <c r="U53" s="53"/>
       <c r="V53" s="58"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="21:23" ht="26.1" customHeight="1">
       <c r="U54" s="53"/>
       <c r="V54" s="58"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="21:23" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="21:23" ht="26.1" customHeight="1">
       <c r="U55" s="53"/>
       <c r="V55" s="58"/>
       <c r="W55" s="58"/>
@@ -5701,15 +5713,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.85546875" style="2"/>
+    <col min="2" max="2" width="70.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31.5">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -5717,23 +5729,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38.1" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38.1" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38.1" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -5741,7 +5753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="38.1" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5749,12 +5761,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="38.1" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5766,695 +5778,706 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="53"/>
-    <col min="2" max="2" width="108.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.5" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="53"/>
+    <col min="1" max="1" width="10.85546875" style="53"/>
+    <col min="2" max="2" width="108.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.42578125" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="54" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="54" t="s">
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C4" s="54" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="54" t="s">
+    <row r="5" spans="1:3" ht="24">
+      <c r="A5" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C5" s="54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="53" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B6" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C6" s="54" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B10" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C14" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24">
+      <c r="A23" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="53" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="54" t="s">
+      <c r="B34" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="54" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24">
+      <c r="A38" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="36">
+      <c r="A39" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="54" t="s">
+      <c r="B39" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="53" t="s">
+      <c r="C39" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24">
+      <c r="A40" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24">
+      <c r="A43" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A38" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="C38" s="54" t="s">
+      <c r="B43" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="54" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="54" t="s">
+    <row r="44" spans="1:3" ht="36">
+      <c r="A44" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="54" t="s">
+      <c r="C44" s="54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24">
+      <c r="A45" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A43" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="53" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B46" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24">
+      <c r="A47" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="54" t="s">
+      <c r="C47" s="54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="53" t="s">
+    <row r="49" spans="1:3" ht="24">
+      <c r="A49" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B49" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C49" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="53" t="s">
+    <row r="50" spans="1:3" ht="24">
+      <c r="A50" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B50" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C50" s="54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24">
+      <c r="A51" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A50" s="53" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B54" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C50" s="54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="53" t="s">
+      <c r="C54" s="54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B55" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C57" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="53" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B58" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24">
+      <c r="A61" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C62" s="54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A60" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="53" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B64" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C66" s="54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" s="54" t="s">
+    <row r="67" spans="1:3" ht="48">
+      <c r="A67" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C67" s="54" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A66" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="B66" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="54" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="53" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="53" t="s">
-        <v>249</v>
+      <c r="C68" s="54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="53" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6472,613 +6495,613 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.33203125" customWidth="1"/>
+    <col min="2" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+    </row>
+    <row r="2" spans="1:4" ht="22.5">
+      <c r="A2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-    </row>
-    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>54</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
     </row>
-    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="56.25">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="39"/>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="22.5">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="22.5">
       <c r="A7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="22.5">
       <c r="A8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="68.25" thickBot="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" ht="13.5" thickBot="1">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="115" t="s">
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="37" t="s">
+      <c r="B13" s="38" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>69</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>73</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>74</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>75</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="22.5">
       <c r="A17" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>76</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>77</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>79</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>81</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="22.5">
       <c r="A20" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>83</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
     </row>
-    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="22.5">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="39"/>
     </row>
-    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="33.75">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="39"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="39"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>90</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>93</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>94</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="22.5">
       <c r="A30" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>95</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>96</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="22.5">
       <c r="A31" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>97</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>98</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>100</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="22.5">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:4" ht="22.5">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:4" ht="33.75">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:4" ht="33.75">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:4" ht="56.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" ht="45.75" thickBot="1">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" ht="13.5" thickBot="1">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="118" t="s">
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+    </row>
+    <row r="42" spans="1:4" ht="33.75">
+      <c r="A42" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
-    </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A42" s="37" t="s">
+      <c r="B42" s="45" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>117</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
     </row>
-    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="56.25">
       <c r="A43" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="45" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>119</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
     </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="45">
       <c r="A44" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="45" t="s">
         <v>120</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>121</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="22.5">
       <c r="A45" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="45" t="s">
         <v>122</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>123</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
     </row>
-    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="33.75">
       <c r="A46" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="45" t="s">
         <v>124</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>125</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
     </row>
-    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="56.25">
       <c r="A47" s="37"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:4" ht="33.75">
       <c r="A48" s="37"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:4" ht="56.25">
       <c r="A49" s="37"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" ht="79.5" thickBot="1">
       <c r="A50" s="40"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
       <c r="A51" s="43"/>
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121" t="s">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A52" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="124"/>
+    </row>
+    <row r="53" spans="1:4" ht="22.5">
+      <c r="A53" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="123"/>
-    </row>
-    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
-      <c r="A53" s="50" t="s">
+      <c r="B53" s="51" t="s">
         <v>135</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>136</v>
       </c>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
     </row>
-    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="22.5">
       <c r="A54" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>137</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>138</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="22.5">
       <c r="A55" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>140</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="22.5">
       <c r="A56" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
     </row>
-    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="22.5">
       <c r="A57" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
     </row>
-    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="22.5">
       <c r="A58" s="52"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:4" ht="67.5">
       <c r="A59" s="52"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:4" ht="23.25" thickBot="1">
       <c r="A60" s="52"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1">
       <c r="A61" s="43"/>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="121" t="s">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A62" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="123"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="124"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="123"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="50" t="s">
+      <c r="B63" s="51" t="s">
         <v>152</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>153</v>
       </c>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>154</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>155</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
     </row>
-    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="45">
       <c r="A65" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="C65" s="38" t="s">
         <v>157</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>158</v>
       </c>
       <c r="D65" s="38"/>
     </row>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -4130,8 +4130,8 @@
         <v>322</v>
       </c>
       <c r="J7" s="80"/>
-      <c r="L7" s="5" t="s">
-        <v>285</v>
+      <c r="L7" s="56" t="s">
+        <v>241</v>
       </c>
       <c r="M7" s="66" t="s">
         <v>291</v>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PESSOLES_LOCAL\GitHub\Informatique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1E6790-D990-4E9F-B0C2-8B379C4A876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="465" windowWidth="17175" windowHeight="14325" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
-    <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId2"/>
+    <sheet name="Semanier MPSI IPT 2021-2022" sheetId="12" r:id="rId2"/>
     <sheet name="Cycles MPSI IPT" sheetId="11" r:id="rId3"/>
     <sheet name="Competences" sheetId="14" r:id="rId4"/>
     <sheet name="Programme" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$19:$F$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2021-2022'!$A$19:$F$21</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,18 +31,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="348">
   <si>
     <t>Cours</t>
   </si>
@@ -1096,12 +1091,15 @@
   </si>
   <si>
     <t>Theme 0 - Validation des connaissances</t>
+  </si>
+  <si>
+    <t>S1_02_StructuresImbriquees\05_RechercheDansTableau\05_RechercheDansTableau.tex;S1_02_StructuresImbriquees\06_RechercheMotDansTexte\06_RechercheMotDansTexte.tex;S1_02_StructuresImbriquees\07_TriBulles\07_TriBulles.tex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="10"/>
@@ -1258,7 +1256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1539,15 +1537,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="660">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2211,7 +2200,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2442,12 +2431,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2570,6 +2553,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="660">
@@ -3226,13 +3212,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="659" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 4 3" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3544,22 +3530,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1">
+    <row r="1" spans="1:8" ht="13" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3575,8 +3561,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63">
-      <c r="A2" s="106">
+    <row r="2" spans="1:8" ht="62">
+      <c r="A2" s="104">
         <v>1</v>
       </c>
       <c r="B2" s="68" t="s">
@@ -3589,8 +3575,8 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="89.25">
-      <c r="A3" s="107"/>
+    <row r="3" spans="1:8" ht="87.5">
+      <c r="A3" s="105"/>
       <c r="B3" s="3" t="s">
         <v>297</v>
       </c>
@@ -3602,7 +3588,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="107"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="3" t="s">
         <v>301</v>
       </c>
@@ -3614,7 +3600,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="107"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="3" t="s">
         <v>298</v>
       </c>
@@ -3625,8 +3611,8 @@
       <c r="E5" s="25"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
+    <row r="6" spans="1:8" ht="50.15" customHeight="1" thickBot="1">
+      <c r="A6" s="106"/>
       <c r="B6" s="70" t="s">
         <v>299</v>
       </c>
@@ -3637,8 +3623,8 @@
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
     </row>
-    <row r="7" spans="1:8" ht="63">
-      <c r="A7" s="106">
+    <row r="7" spans="1:8" ht="62">
+      <c r="A7" s="104">
         <v>2</v>
       </c>
       <c r="B7" s="72" t="s">
@@ -3651,8 +3637,8 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
     </row>
-    <row r="8" spans="1:8" ht="38.25">
-      <c r="A8" s="107"/>
+    <row r="8" spans="1:8" ht="37.5">
+      <c r="A8" s="105"/>
       <c r="B8" s="73" t="s">
         <v>297</v>
       </c>
@@ -3663,8 +3649,8 @@
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
     </row>
-    <row r="9" spans="1:8" ht="25.5">
-      <c r="A9" s="107"/>
+    <row r="9" spans="1:8" ht="25">
+      <c r="A9" s="105"/>
       <c r="B9" s="73" t="s">
         <v>301</v>
       </c>
@@ -3679,7 +3665,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="107"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="73" t="s">
         <v>298</v>
       </c>
@@ -3690,8 +3676,8 @@
       <c r="E10" s="25"/>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:8" ht="50.15" customHeight="1" thickBot="1">
+      <c r="A11" s="106"/>
       <c r="B11" s="74" t="s">
         <v>299</v>
       </c>
@@ -3702,8 +3688,8 @@
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
     </row>
-    <row r="12" spans="1:8" ht="63">
-      <c r="A12" s="106">
+    <row r="12" spans="1:8" ht="62">
+      <c r="A12" s="104">
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
@@ -3716,8 +3702,8 @@
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
     </row>
-    <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="107"/>
+    <row r="13" spans="1:8" ht="25">
+      <c r="A13" s="105"/>
       <c r="B13" s="76" t="s">
         <v>297</v>
       </c>
@@ -3728,8 +3714,8 @@
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
-      <c r="A14" s="107"/>
+    <row r="14" spans="1:8" ht="25">
+      <c r="A14" s="105"/>
       <c r="B14" s="76" t="s">
         <v>301</v>
       </c>
@@ -3744,7 +3730,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="107"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="76" t="s">
         <v>298</v>
       </c>
@@ -3755,8 +3741,8 @@
       <c r="E15" s="25"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:8" ht="50.15" customHeight="1" thickBot="1">
+      <c r="A16" s="106"/>
       <c r="B16" s="77" t="s">
         <v>299</v>
       </c>
@@ -3783,37 +3769,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="26.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26.15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.85546875" style="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="37.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="32.7109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="10.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="41.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="1"/>
-    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="58.42578125" style="57" customWidth="1"/>
-    <col min="24" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="2" width="10.81640625" style="1"/>
+    <col min="3" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="9" width="37.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7265625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="32.7265625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="41.26953125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="1"/>
+    <col min="21" max="21" width="10.81640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="58.453125" style="57" customWidth="1"/>
+    <col min="24" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.1" customHeight="1">
+    <row r="1" spans="1:23" ht="26.15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,26 +3852,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="32.1" customHeight="1">
+    <row r="2" spans="1:23" ht="32.15" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>44438</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="123">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="64"/>
       <c r="G2" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="84" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="84" t="s">
         <v>338</v>
       </c>
       <c r="J2" s="80"/>
@@ -3903,7 +3886,7 @@
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="25"/>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="103" t="s">
         <v>344</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -3916,7 +3899,7 @@
       <c r="V2" s="58"/>
       <c r="W2" s="58"/>
     </row>
-    <row r="3" spans="1:23" ht="32.1" customHeight="1">
+    <row r="3" spans="1:23" ht="32.15" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3924,10 +3907,10 @@
         <f>B4</f>
         <v>44445</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="123">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="55"/>
       <c r="G3" s="11">
@@ -3939,7 +3922,7 @@
       <c r="I3" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="J3" s="104"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="5" t="s">
         <v>341</v>
       </c>
@@ -3949,9 +3932,9 @@
       <c r="M3" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="N3" s="104"/>
+      <c r="N3" s="102"/>
       <c r="O3" s="25"/>
-      <c r="P3" s="105" t="s">
+      <c r="P3" s="103" t="s">
         <v>344</v>
       </c>
       <c r="Q3" s="31" t="s">
@@ -3964,7 +3947,7 @@
       <c r="V3" s="58"/>
       <c r="W3" s="58"/>
     </row>
-    <row r="4" spans="1:23" ht="32.1" customHeight="1">
+    <row r="4" spans="1:23" ht="32.15" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3972,20 +3955,20 @@
         <f>B2+7</f>
         <v>44445</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="123">
         <v>1</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="55"/>
       <c r="G4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J4" s="80"/>
       <c r="K4" s="65" t="s">
@@ -4012,7 +3995,7 @@
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="56.1" customHeight="1">
+    <row r="5" spans="1:23" ht="25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4020,10 +4003,10 @@
         <f>B4+7</f>
         <v>44452</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="123">
         <v>1</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="55"/>
       <c r="G5" s="11">
@@ -4036,7 +4019,6 @@
         <v>321</v>
       </c>
       <c r="J5" s="80"/>
-      <c r="K5" s="5"/>
       <c r="L5" s="56" t="s">
         <v>244</v>
       </c>
@@ -4058,7 +4040,7 @@
       <c r="V5" s="58"/>
       <c r="W5" s="58"/>
     </row>
-    <row r="6" spans="1:23" ht="32.1" customHeight="1">
+    <row r="6" spans="1:23" ht="32.15" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4066,20 +4048,20 @@
         <f t="shared" ref="B6:B10" si="0">B5+7</f>
         <v>44459</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="123">
         <v>1</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J6" s="80"/>
       <c r="K6" s="65" t="s">
@@ -4106,7 +4088,7 @@
       <c r="V6" s="58"/>
       <c r="W6" s="58"/>
     </row>
-    <row r="7" spans="1:23" ht="26.1" customHeight="1">
+    <row r="7" spans="1:23" ht="26.15" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4114,10 +4096,10 @@
         <f>B6+7</f>
         <v>44466</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="123">
         <v>1</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
@@ -4130,6 +4112,9 @@
         <v>322</v>
       </c>
       <c r="J7" s="80"/>
+      <c r="K7" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="L7" s="56" t="s">
         <v>241</v>
       </c>
@@ -4151,7 +4136,7 @@
       <c r="V7" s="58"/>
       <c r="W7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="26.1" customHeight="1">
+    <row r="8" spans="1:23" ht="26.15" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4159,22 +4144,22 @@
         <f t="shared" si="0"/>
         <v>44473</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="89"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>319</v>
+        <v>336</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="65" t="s">
-        <v>337</v>
+      <c r="K8" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="66" t="s">
@@ -4195,7 +4180,7 @@
       <c r="V8" s="58"/>
       <c r="W8" s="58"/>
     </row>
-    <row r="9" spans="1:23" ht="66" customHeight="1">
+    <row r="9" spans="1:23" ht="25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4203,10 +4188,10 @@
         <f t="shared" si="0"/>
         <v>44480</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="123">
         <v>1</v>
       </c>
-      <c r="D9" s="90"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11">
@@ -4215,7 +4200,7 @@
       <c r="H9" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="11" t="s">
         <v>319</v>
       </c>
       <c r="J9" s="4"/>
@@ -4241,7 +4226,7 @@
       <c r="V9" s="58"/>
       <c r="W9" s="58"/>
     </row>
-    <row r="10" spans="1:23" ht="66" customHeight="1">
+    <row r="10" spans="1:23" ht="25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4249,19 +4234,21 @@
         <f t="shared" si="0"/>
         <v>44487</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="123">
         <v>1</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="86">
-        <v>5</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="I10" s="84"/>
+      <c r="G10" s="11">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>319</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="65" t="s">
         <v>337</v>
@@ -4287,24 +4274,24 @@
       <c r="V10" s="58"/>
       <c r="W10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A11" s="109" t="s">
+    <row r="11" spans="1:23" ht="26.15" customHeight="1">
+      <c r="A11" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="19"/>
@@ -4312,7 +4299,7 @@
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="26.1" customHeight="1">
+    <row r="12" spans="1:23" ht="26.15" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4320,22 +4307,22 @@
         <f>B10+21</f>
         <v>44508</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="89">
         <v>1</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="17"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>6</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>324</v>
+      <c r="G12" s="84">
+        <v>8</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>323</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="84" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="65"/>
@@ -4356,7 +4343,7 @@
       <c r="V12" s="58"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="26.1" customHeight="1">
+    <row r="13" spans="1:23" ht="26.15" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4364,10 +4351,10 @@
         <f t="shared" ref="B13:B17" si="1">B12+7</f>
         <v>44515</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="90">
         <v>1</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -4396,7 +4383,7 @@
       <c r="V13" s="58"/>
       <c r="W13" s="58"/>
     </row>
-    <row r="14" spans="1:23" ht="26.1" customHeight="1">
+    <row r="14" spans="1:23" ht="26.15" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4404,17 +4391,17 @@
         <f t="shared" si="1"/>
         <v>44522</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="90">
         <v>1</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="17"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>319</v>
@@ -4442,7 +4429,7 @@
       <c r="V14" s="58"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:23" ht="26.1" customHeight="1">
+    <row r="15" spans="1:23" ht="26.15" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4450,10 +4437,10 @@
         <f t="shared" si="1"/>
         <v>44529</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="90">
         <v>1</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="17"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
@@ -4485,7 +4472,7 @@
       <c r="V15" s="58"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:23" ht="26.1" customHeight="1">
+    <row r="16" spans="1:23" ht="26.15" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4493,17 +4480,17 @@
         <f t="shared" si="1"/>
         <v>44536</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="90">
         <v>1</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="17"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="86">
-        <v>8</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>323</v>
+      <c r="G16" s="11">
+        <v>7</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>319</v>
@@ -4533,7 +4520,7 @@
       <c r="V16" s="58"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="26.1" customHeight="1">
+    <row r="17" spans="1:23" ht="26.15" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4541,17 +4528,17 @@
         <f t="shared" si="1"/>
         <v>44543</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="91">
         <v>1</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="17"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11">
-        <v>9</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>326</v>
+      <c r="G17" s="84">
+        <v>8</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>323</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>321</v>
@@ -4579,24 +4566,24 @@
       <c r="V17" s="58"/>
       <c r="W17" s="58"/>
     </row>
-    <row r="18" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A18" s="109" t="s">
+    <row r="18" spans="1:23" ht="26.15" customHeight="1">
+      <c r="A18" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="19"/>
@@ -4604,7 +4591,7 @@
       <c r="V18" s="58"/>
       <c r="W18" s="58"/>
     </row>
-    <row r="19" spans="1:23" ht="26.1" customHeight="1">
+    <row r="19" spans="1:23" ht="26.15" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4612,10 +4599,10 @@
         <f>B17+21</f>
         <v>44564</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="89">
         <v>1</v>
       </c>
-      <c r="D19" s="88"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="17"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
@@ -4647,7 +4634,7 @@
       <c r="V19" s="58"/>
       <c r="W19" s="58"/>
     </row>
-    <row r="20" spans="1:23" ht="26.1" customHeight="1">
+    <row r="20" spans="1:23" ht="26.15" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4655,22 +4642,22 @@
         <f>B19+7</f>
         <v>44571</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="90">
         <v>1</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="17"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="84" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="65" t="s">
@@ -4695,7 +4682,7 @@
       <c r="V20" s="58"/>
       <c r="W20" s="58"/>
     </row>
-    <row r="21" spans="1:23" ht="26.1" customHeight="1">
+    <row r="21" spans="1:23" ht="26.15" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4703,10 +4690,10 @@
         <f t="shared" ref="B21:B42" si="2">B20+7</f>
         <v>44578</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="90">
         <v>1</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="17"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
@@ -4735,7 +4722,7 @@
       <c r="V21" s="58"/>
       <c r="W21" s="58"/>
     </row>
-    <row r="22" spans="1:23" ht="26.1" customHeight="1">
+    <row r="22" spans="1:23" ht="26.15" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4743,17 +4730,17 @@
         <f>B21+7</f>
         <v>44585</v>
       </c>
-      <c r="C22" s="93">
+      <c r="C22" s="91">
         <v>1</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="17"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="86">
-        <v>11</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>323</v>
+      <c r="G22" s="11">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="80"/>
@@ -4779,29 +4766,29 @@
       <c r="V22" s="58"/>
       <c r="W22" s="58"/>
     </row>
-    <row r="23" spans="1:23" ht="26.1" customHeight="1">
+    <row r="23" spans="1:23" ht="26.15" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="92">
         <f>B22+7</f>
         <v>44592</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="93">
         <v>1</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97">
+      <c r="D23" s="94"/>
+      <c r="E23" s="95">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="G23" s="12">
-        <v>12</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>328</v>
+      <c r="G23" s="84">
+        <v>11</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>323</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="80"/>
@@ -4827,19 +4814,19 @@
       <c r="V23" s="58"/>
       <c r="W23" s="58"/>
     </row>
-    <row r="24" spans="1:23" ht="26.1" customHeight="1">
+    <row r="24" spans="1:23" ht="26.15" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="94">
+      <c r="B24" s="92">
         <f>B23+7</f>
         <v>44599</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="93">
         <v>1</v>
       </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97">
+      <c r="D24" s="94"/>
+      <c r="E24" s="95">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -4875,24 +4862,24 @@
       <c r="V24" s="58"/>
       <c r="W24" s="58"/>
     </row>
-    <row r="25" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A25" s="109" t="s">
+    <row r="25" spans="1:23" ht="26.15" customHeight="1">
+      <c r="A25" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="19"/>
@@ -4900,19 +4887,19 @@
       <c r="V25" s="58"/>
       <c r="W25" s="58"/>
     </row>
-    <row r="26" spans="1:23" ht="26.1" customHeight="1">
+    <row r="26" spans="1:23" ht="26.15" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="94">
+      <c r="B26" s="92">
         <f>B24+21</f>
         <v>44620</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="111">
         <v>1</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97">
+      <c r="D26" s="94"/>
+      <c r="E26" s="95">
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -4945,17 +4932,17 @@
       </c>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="26.1" customHeight="1">
+    <row r="27" spans="1:23" ht="26.15" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="94">
+      <c r="B27" s="92">
         <f>B26+7</f>
         <v>44627</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="97">
+      <c r="C27" s="112"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="95">
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -4968,7 +4955,7 @@
         <v>329</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="86" t="s">
+      <c r="J27" s="84" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="65" t="s">
@@ -4988,17 +4975,17 @@
       </c>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="26.1" customHeight="1">
+    <row r="28" spans="1:23" ht="26.15" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="94">
+      <c r="B28" s="92">
         <f>B27+7</f>
         <v>44634</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="97">
+      <c r="C28" s="112"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="95">
         <v>3</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -5032,17 +5019,17 @@
       <c r="V28" s="58"/>
       <c r="W28" s="58"/>
     </row>
-    <row r="29" spans="1:23" ht="26.1" customHeight="1">
+    <row r="29" spans="1:23" ht="26.15" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="94">
+      <c r="B29" s="92">
         <f t="shared" si="2"/>
         <v>44641</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="97">
+      <c r="C29" s="112"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="95">
         <v>3</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -5074,17 +5061,17 @@
       <c r="V29" s="58"/>
       <c r="W29" s="58"/>
     </row>
-    <row r="30" spans="1:23" ht="26.1" customHeight="1">
+    <row r="30" spans="1:23" ht="26.15" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="94">
+      <c r="B30" s="92">
         <f t="shared" si="2"/>
         <v>44648</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="97">
+      <c r="C30" s="112"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="95">
         <v>4</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -5118,26 +5105,26 @@
       <c r="V30" s="58"/>
       <c r="W30" s="58"/>
     </row>
-    <row r="31" spans="1:23" ht="26.1" customHeight="1">
+    <row r="31" spans="1:23" ht="26.15" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B31" s="94">
+      <c r="B31" s="92">
         <f t="shared" si="2"/>
         <v>44655</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="97">
+      <c r="C31" s="113"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="95">
         <v>4</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="84">
         <v>15</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="85" t="s">
         <v>323</v>
       </c>
       <c r="I31" s="12"/>
@@ -5162,19 +5149,19 @@
       <c r="V31" s="58"/>
       <c r="W31" s="58"/>
     </row>
-    <row r="32" spans="1:23" ht="26.1" customHeight="1">
+    <row r="32" spans="1:23" ht="26.15" customHeight="1">
       <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B32" s="94">
+      <c r="B32" s="92">
         <f t="shared" si="2"/>
         <v>44662</v>
       </c>
-      <c r="C32" s="95">
+      <c r="C32" s="93">
         <v>1</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97">
+      <c r="D32" s="94"/>
+      <c r="E32" s="95">
         <v>5</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -5210,24 +5197,24 @@
       <c r="V32" s="58"/>
       <c r="W32" s="58"/>
     </row>
-    <row r="33" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A33" s="111" t="s">
+    <row r="33" spans="1:23" ht="26.15" customHeight="1">
+      <c r="A33" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="19"/>
@@ -5235,19 +5222,19 @@
       <c r="V33" s="58"/>
       <c r="W33" s="58"/>
     </row>
-    <row r="34" spans="1:23" ht="26.1" customHeight="1">
+    <row r="34" spans="1:23" ht="26.15" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
-      <c r="B34" s="94">
+      <c r="B34" s="92">
         <f>B32+21</f>
         <v>44683</v>
       </c>
-      <c r="C34" s="95">
+      <c r="C34" s="93">
         <v>1</v>
       </c>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97">
+      <c r="D34" s="94"/>
+      <c r="E34" s="95">
         <v>5</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -5259,7 +5246,7 @@
       <c r="H34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="100"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="18"/>
       <c r="K34" s="65" t="s">
         <v>337</v>
@@ -5283,31 +5270,31 @@
       <c r="V34" s="58"/>
       <c r="W34" s="58"/>
     </row>
-    <row r="35" spans="1:23" ht="26.1" customHeight="1">
+    <row r="35" spans="1:23" ht="26.15" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" s="94">
+      <c r="B35" s="92">
         <f>B34+7</f>
         <v>44690</v>
       </c>
-      <c r="C35" s="102">
+      <c r="C35" s="100">
         <v>1</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="97">
+      <c r="D35" s="96"/>
+      <c r="E35" s="95">
         <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="G35" s="100">
+      <c r="G35" s="98">
         <v>17</v>
       </c>
-      <c r="H35" s="100" t="s">
+      <c r="H35" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="100"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="6"/>
       <c r="K35" s="65" t="s">
         <v>337</v>
@@ -5326,32 +5313,32 @@
       </c>
       <c r="R35" s="20"/>
     </row>
-    <row r="36" spans="1:23" ht="26.1" customHeight="1">
+    <row r="36" spans="1:23" ht="26.15" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B36" s="94">
+      <c r="B36" s="92">
         <f t="shared" si="2"/>
         <v>44697</v>
       </c>
-      <c r="C36" s="102">
+      <c r="C36" s="100">
         <v>1</v>
       </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="97">
+      <c r="D36" s="96"/>
+      <c r="E36" s="95">
         <v>6</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="G36" s="100">
+      <c r="G36" s="98">
         <v>17</v>
       </c>
-      <c r="H36" s="100" t="s">
+      <c r="H36" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="101"/>
-      <c r="J36" s="86" t="s">
+      <c r="I36" s="99"/>
+      <c r="J36" s="84" t="s">
         <v>30</v>
       </c>
       <c r="L36" s="59" t="s">
@@ -5370,31 +5357,31 @@
       </c>
       <c r="R36" s="19"/>
     </row>
-    <row r="37" spans="1:23" ht="26.1" customHeight="1">
+    <row r="37" spans="1:23" ht="26.15" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
-      <c r="B37" s="94">
+      <c r="B37" s="92">
         <f t="shared" si="2"/>
         <v>44704</v>
       </c>
-      <c r="C37" s="103">
+      <c r="C37" s="101">
         <v>1</v>
       </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="97">
+      <c r="D37" s="97"/>
+      <c r="E37" s="95">
         <v>6</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="84">
         <v>18</v>
       </c>
-      <c r="H37" s="87" t="s">
+      <c r="H37" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="I37" s="85"/>
+      <c r="I37" s="83"/>
       <c r="K37" s="65" t="s">
         <v>337</v>
       </c>
@@ -5413,31 +5400,31 @@
       </c>
       <c r="R37" s="29"/>
     </row>
-    <row r="38" spans="1:23" ht="26.1" customHeight="1">
+    <row r="38" spans="1:23" ht="26.15" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
-      <c r="B38" s="94">
+      <c r="B38" s="92">
         <f t="shared" si="2"/>
         <v>44711</v>
       </c>
-      <c r="C38" s="95">
+      <c r="C38" s="93">
         <v>1</v>
       </c>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97">
+      <c r="D38" s="94"/>
+      <c r="E38" s="95">
         <v>6</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="G38" s="100">
+      <c r="G38" s="98">
         <v>19</v>
       </c>
-      <c r="H38" s="100" t="s">
+      <c r="H38" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="I38" s="100"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="7"/>
       <c r="K38" s="65" t="s">
         <v>337</v>
@@ -5457,27 +5444,27 @@
       <c r="V38" s="58"/>
       <c r="W38" s="58"/>
     </row>
-    <row r="39" spans="1:23" ht="26.1" customHeight="1">
+    <row r="39" spans="1:23" ht="26.15" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
-      <c r="B39" s="94">
+      <c r="B39" s="92">
         <f t="shared" si="2"/>
         <v>44718</v>
       </c>
-      <c r="C39" s="102">
+      <c r="C39" s="100">
         <v>1</v>
       </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="97"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="100">
+      <c r="G39" s="98">
         <v>19</v>
       </c>
-      <c r="H39" s="100" t="s">
+      <c r="H39" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="I39" s="101"/>
+      <c r="I39" s="99"/>
       <c r="J39" s="4"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -5495,27 +5482,27 @@
       <c r="V39" s="58"/>
       <c r="W39" s="58"/>
     </row>
-    <row r="40" spans="1:23" ht="26.1" customHeight="1">
+    <row r="40" spans="1:23" ht="26.15" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
-      <c r="B40" s="94">
+      <c r="B40" s="92">
         <f t="shared" si="2"/>
         <v>44725</v>
       </c>
-      <c r="C40" s="102">
+      <c r="C40" s="100">
         <v>1</v>
       </c>
-      <c r="D40" s="98"/>
-      <c r="E40" s="97"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="95"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="100">
+      <c r="G40" s="98">
         <v>20</v>
       </c>
-      <c r="H40" s="100" t="s">
+      <c r="H40" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="100"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="4"/>
       <c r="K40" s="65" t="s">
         <v>337</v>
@@ -5533,27 +5520,27 @@
       <c r="V40" s="58"/>
       <c r="W40" s="58"/>
     </row>
-    <row r="41" spans="1:23" ht="26.1" customHeight="1">
+    <row r="41" spans="1:23" ht="26.15" customHeight="1">
       <c r="A41" s="1">
         <v>33</v>
       </c>
-      <c r="B41" s="94">
+      <c r="B41" s="92">
         <f t="shared" si="2"/>
         <v>44732</v>
       </c>
-      <c r="C41" s="102">
+      <c r="C41" s="100">
         <v>1</v>
       </c>
-      <c r="D41" s="98"/>
-      <c r="E41" s="97"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="86">
+      <c r="G41" s="84">
         <v>21</v>
       </c>
-      <c r="H41" s="87" t="s">
+      <c r="H41" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="I41" s="100"/>
+      <c r="I41" s="98"/>
       <c r="J41" s="18"/>
       <c r="K41" s="65" t="s">
         <v>337</v>
@@ -5571,27 +5558,27 @@
       <c r="V41" s="58"/>
       <c r="W41" s="58"/>
     </row>
-    <row r="42" spans="1:23" ht="26.1" customHeight="1">
+    <row r="42" spans="1:23" ht="26.15" customHeight="1">
       <c r="A42" s="1">
         <v>34</v>
       </c>
-      <c r="B42" s="94">
+      <c r="B42" s="92">
         <f t="shared" si="2"/>
         <v>44739</v>
       </c>
-      <c r="C42" s="103">
+      <c r="C42" s="101">
         <v>1</v>
       </c>
-      <c r="D42" s="99"/>
-      <c r="E42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="100">
+      <c r="G42" s="98">
         <v>22</v>
       </c>
-      <c r="H42" s="100" t="s">
+      <c r="H42" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="101"/>
+      <c r="I42" s="99"/>
       <c r="K42" s="65" t="s">
         <v>337</v>
       </c>
@@ -5606,86 +5593,86 @@
       <c r="V42" s="58"/>
       <c r="W42" s="58"/>
     </row>
-    <row r="43" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A43" s="111" t="s">
+    <row r="43" spans="1:23" ht="26.15" customHeight="1">
+      <c r="A43" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
-      <c r="M43" s="112"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="112"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="110"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="34"/>
       <c r="U43" s="53"/>
       <c r="V43" s="58"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="26.1" customHeight="1">
+    <row r="44" spans="1:23" ht="26.15" customHeight="1">
       <c r="U44" s="53"/>
       <c r="V44" s="58"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="26.1" customHeight="1">
+    <row r="45" spans="1:23" ht="26.15" customHeight="1">
       <c r="U45" s="53"/>
       <c r="V45" s="58"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="26.1" customHeight="1">
+    <row r="46" spans="1:23" ht="26.15" customHeight="1">
       <c r="U46" s="53"/>
       <c r="V46" s="58"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="26.1" customHeight="1">
+    <row r="47" spans="1:23" ht="26.15" customHeight="1">
       <c r="U47" s="53"/>
       <c r="V47" s="58"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="26.1" customHeight="1">
+    <row r="48" spans="1:23" ht="26.15" customHeight="1">
       <c r="U48" s="53"/>
       <c r="V48" s="58"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="21:23" ht="26.1" customHeight="1">
+    <row r="49" spans="21:23" ht="26.15" customHeight="1">
       <c r="U49" s="53"/>
       <c r="V49" s="58"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="21:23" ht="26.1" customHeight="1">
+    <row r="50" spans="21:23" ht="26.15" customHeight="1">
       <c r="U50" s="53"/>
       <c r="V50" s="58"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="21:23" ht="26.1" customHeight="1">
+    <row r="51" spans="21:23" ht="26.15" customHeight="1">
       <c r="U51" s="53"/>
       <c r="V51" s="58"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="21:23" ht="26.1" customHeight="1">
+    <row r="52" spans="21:23" ht="26.15" customHeight="1">
       <c r="U52" s="53"/>
       <c r="V52" s="58"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="21:23" ht="26.1" customHeight="1">
+    <row r="53" spans="21:23" ht="26.15" customHeight="1">
       <c r="U53" s="53"/>
       <c r="V53" s="58"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="21:23" ht="26.1" customHeight="1">
+    <row r="54" spans="21:23" ht="26.15" customHeight="1">
       <c r="U54" s="53"/>
       <c r="V54" s="58"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="21:23" ht="26.1" customHeight="1">
+    <row r="55" spans="21:23" ht="26.15" customHeight="1">
       <c r="U55" s="53"/>
       <c r="V55" s="58"/>
       <c r="W55" s="58"/>
@@ -5706,22 +5693,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2"/>
-    <col min="2" max="2" width="70.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1"/>
-    <row r="2" spans="1:2" ht="31.5">
+    <row r="2" spans="1:2" ht="31">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -5729,7 +5716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38.1" customHeight="1">
+    <row r="3" spans="1:2" ht="38.15" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -5737,7 +5724,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.1" customHeight="1">
+    <row r="4" spans="1:2" ht="38.15" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -5745,7 +5732,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38.1" customHeight="1">
+    <row r="5" spans="1:2" ht="38.15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -5753,7 +5740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38.1" customHeight="1">
+    <row r="6" spans="1:2" ht="38.15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5761,7 +5748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38.1" customHeight="1">
+    <row r="7" spans="1:2" ht="38.15" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -5777,19 +5764,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="53"/>
-    <col min="2" max="2" width="108.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.42578125" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="53"/>
+    <col min="1" max="1" width="10.81640625" style="53"/>
+    <col min="2" max="2" width="108.453125" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.453125" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5825,7 +5812,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="53" t="s">
         <v>287</v>
       </c>
@@ -6164,7 +6151,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24">
+    <row r="38" spans="1:3">
       <c r="A38" s="53" t="s">
         <v>186</v>
       </c>
@@ -6175,7 +6162,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="36">
+    <row r="39" spans="1:3" ht="24">
       <c r="A39" s="53" t="s">
         <v>212</v>
       </c>
@@ -6186,7 +6173,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24">
+    <row r="40" spans="1:3">
       <c r="A40" s="53" t="s">
         <v>213</v>
       </c>
@@ -6251,7 +6238,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24">
+    <row r="47" spans="1:3">
       <c r="A47" s="53" t="s">
         <v>191</v>
       </c>
@@ -6284,7 +6271,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24">
+    <row r="50" spans="1:3">
       <c r="A50" s="53" t="s">
         <v>194</v>
       </c>
@@ -6453,7 +6440,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="48">
+    <row r="67" spans="1:3" ht="36">
       <c r="A67" s="53" t="s">
         <v>249</v>
       </c>
@@ -6488,28 +6475,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.28515625" customWidth="1"/>
+    <col min="2" max="4" width="47.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:4" ht="14.5">
+      <c r="A1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-    </row>
-    <row r="2" spans="1:4" ht="22.5">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+    </row>
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="37" t="s">
         <v>52</v>
       </c>
@@ -6519,7 +6506,7 @@
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
     </row>
-    <row r="3" spans="1:4" ht="56.25">
+    <row r="3" spans="1:4" ht="42">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38" t="s">
@@ -6527,7 +6514,7 @@
       </c>
       <c r="D3" s="39"/>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="31.5">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38" t="s">
@@ -6535,7 +6522,7 @@
       </c>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:4" ht="22.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38" t="s">
@@ -6549,7 +6536,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="1:4" ht="22.5">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="37" t="s">
         <v>57</v>
       </c>
@@ -6559,7 +6546,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:4" ht="22.5">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="37" t="s">
         <v>59</v>
       </c>
@@ -6571,7 +6558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:4" ht="42">
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
@@ -6581,7 +6568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="68.25" thickBot="1">
+    <row r="10" spans="1:4" ht="53" thickBot="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
@@ -6591,19 +6578,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" thickBot="1">
+    <row r="11" spans="1:4" ht="13" thickBot="1">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="116" t="s">
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="37" t="s">
@@ -6625,7 +6612,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:4" ht="22.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="37" t="s">
         <v>71</v>
       </c>
@@ -6645,7 +6632,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="37" t="s">
         <v>75</v>
       </c>
@@ -6655,7 +6642,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="37" t="s">
         <v>77</v>
       </c>
@@ -6675,7 +6662,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="37" t="s">
         <v>81</v>
       </c>
@@ -6685,7 +6672,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38" t="s">
@@ -6693,7 +6680,7 @@
       </c>
       <c r="D21" s="39"/>
     </row>
-    <row r="22" spans="1:4" ht="33.75">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38" t="s">
@@ -6701,7 +6688,7 @@
       </c>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38" t="s">
@@ -6741,7 +6728,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="37" t="s">
         <v>90</v>
       </c>
@@ -6761,7 +6748,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="37" t="s">
         <v>94</v>
       </c>
@@ -6771,7 +6758,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="37" t="s">
         <v>96</v>
       </c>
@@ -6791,7 +6778,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:4" ht="22.5">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38" t="s">
@@ -6801,7 +6788,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22.5">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
@@ -6811,7 +6798,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33.75">
+    <row r="35" spans="1:4" ht="31.5">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
@@ -6821,7 +6808,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45">
+    <row r="36" spans="1:4" ht="31.5">
       <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38" t="s">
@@ -6831,7 +6818,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33.75">
+    <row r="37" spans="1:4" ht="31.5">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
@@ -6841,7 +6828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="56.25">
+    <row r="38" spans="1:4" ht="52.5">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
@@ -6851,7 +6838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45.75" thickBot="1">
+    <row r="39" spans="1:4" ht="32" thickBot="1">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
@@ -6861,21 +6848,21 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.5" thickBot="1">
+    <row r="40" spans="1:4" ht="13" thickBot="1">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
     </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="119" t="s">
+    <row r="41" spans="1:4" ht="14.5">
+      <c r="A41" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="121"/>
-    </row>
-    <row r="42" spans="1:4" ht="33.75">
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.5">
       <c r="A42" s="37" t="s">
         <v>115</v>
       </c>
@@ -6885,7 +6872,7 @@
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
     </row>
-    <row r="43" spans="1:4" ht="56.25">
+    <row r="43" spans="1:4" ht="52.5">
       <c r="A43" s="37" t="s">
         <v>117</v>
       </c>
@@ -6895,7 +6882,7 @@
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
     </row>
-    <row r="44" spans="1:4" ht="45">
+    <row r="44" spans="1:4" ht="31.5">
       <c r="A44" s="37" t="s">
         <v>119</v>
       </c>
@@ -6905,7 +6892,7 @@
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
     </row>
-    <row r="45" spans="1:4" ht="22.5">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="37" t="s">
         <v>121</v>
       </c>
@@ -6915,7 +6902,7 @@
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
     </row>
-    <row r="46" spans="1:4" ht="33.75">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="37" t="s">
         <v>123</v>
       </c>
@@ -6925,7 +6912,7 @@
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
     </row>
-    <row r="47" spans="1:4" ht="56.25">
+    <row r="47" spans="1:4" ht="42">
       <c r="A47" s="37"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45" t="s">
@@ -6935,7 +6922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33.75">
+    <row r="48" spans="1:4" ht="31.5">
       <c r="A48" s="37"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45" t="s">
@@ -6945,7 +6932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="56.25">
+    <row r="49" spans="1:4" ht="52.5">
       <c r="A49" s="37"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45" t="s">
@@ -6955,7 +6942,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="79.5" thickBot="1">
+    <row r="50" spans="1:4" ht="74" thickBot="1">
       <c r="A50" s="40"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47" t="s">
@@ -6965,21 +6952,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
       <c r="A51" s="43"/>
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A52" s="122" t="s">
+    <row r="52" spans="1:4" ht="15" thickBot="1">
+      <c r="A52" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="124"/>
-    </row>
-    <row r="53" spans="1:4" ht="22.5">
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+    </row>
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="50" t="s">
         <v>134</v>
       </c>
@@ -6989,7 +6976,7 @@
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
     </row>
-    <row r="54" spans="1:4" ht="22.5">
+    <row r="54" spans="1:4" ht="21">
       <c r="A54" s="52" t="s">
         <v>136</v>
       </c>
@@ -6999,7 +6986,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4" ht="22.5">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="52" t="s">
         <v>138</v>
       </c>
@@ -7009,7 +6996,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4" ht="22.5">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="52" t="s">
         <v>140</v>
       </c>
@@ -7019,7 +7006,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
     </row>
-    <row r="57" spans="1:4" ht="22.5">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="52" t="s">
         <v>142</v>
       </c>
@@ -7029,7 +7016,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
     </row>
-    <row r="58" spans="1:4" ht="22.5">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="52"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38" t="s">
@@ -7039,7 +7026,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="67.5">
+    <row r="59" spans="1:4" ht="52.5">
       <c r="A59" s="52"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38" t="s">
@@ -7049,7 +7036,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25" thickBot="1">
+    <row r="60" spans="1:4" ht="21.5" thickBot="1">
       <c r="A60" s="52"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38" t="s">
@@ -7059,19 +7046,19 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="43"/>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="122" t="s">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
+      <c r="A62" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="123"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="122"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="50" t="s">
@@ -7093,7 +7080,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
     </row>
-    <row r="65" spans="1:4" ht="45">
+    <row r="65" spans="1:4" ht="42">
       <c r="A65" s="52" t="s">
         <v>155</v>
       </c>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PESSOLES_LOCAL\GitHub\Informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1E6790-D990-4E9F-B0C2-8B379C4A876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2021-2022'!$A$19:$F$21</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="360">
   <si>
     <t>Cours</t>
   </si>
@@ -150,15 +149,6 @@
   </si>
   <si>
     <t>Chapitre correspondant au TP</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
   </si>
   <si>
     <t>1-4</t>
@@ -772,16 +762,10 @@
     <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
   </si>
   <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.S8; AA.S9</t>
-  </si>
-  <si>
     <t>AA.C9; AA.S12</t>
   </si>
   <si>
     <t>AA.C9; AA.S11</t>
-  </si>
-  <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.C9; AA.S6; AA.S7; AA.S10</t>
   </si>
   <si>
     <t>Compétences cours</t>
@@ -916,18 +900,9 @@
     <t>AA.S01</t>
   </si>
   <si>
-    <t>AA.C01; AA.S01; AA.S2; AA.S3</t>
-  </si>
-  <si>
-    <t>AA.C01; AA.S01; AA.S3; AA.S3</t>
-  </si>
-  <si>
     <t>AA.C01</t>
   </si>
   <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C8; AA.S8; AA.S9;AA.S10</t>
-  </si>
-  <si>
     <t>2019-2020</t>
   </si>
   <si>
@@ -1081,9 +1056,6 @@
     <t>S1_00_QCM/consignes_tp00</t>
   </si>
   <si>
-    <t>S1.C0</t>
-  </si>
-  <si>
     <t>logo_python</t>
   </si>
   <si>
@@ -1093,14 +1065,77 @@
     <t>Theme 0 - Validation des connaissances</t>
   </si>
   <si>
-    <t>S1_02_StructuresImbriquees\05_RechercheDansTableau\05_RechercheDansTableau.tex;S1_02_StructuresImbriquees\06_RechercheMotDansTexte\06_RechercheMotDansTexte.tex;S1_02_StructuresImbriquees\07_TriBulles\07_TriBulles.tex</t>
+    <t>Th. 0</t>
+  </si>
+  <si>
+    <t>Th. 1</t>
+  </si>
+  <si>
+    <t>Recherche séquentielle dans un tableau unidimensionnel. Dictionnaire.</t>
+  </si>
+  <si>
+    <t>Algorithmes opérant sur une structure séquentielle par boucles imbriquées.</t>
+  </si>
+  <si>
+    <t>Utilisation de modules, de bibliothèques.</t>
+  </si>
+  <si>
+    <t>Algorithmes dichotomiques.</t>
+  </si>
+  <si>
+    <t>Fonctions récursives.</t>
+  </si>
+  <si>
+    <t>Algorithmes gloutons.</t>
+  </si>
+  <si>
+    <t>Matrices de pixels et images.</t>
+  </si>
+  <si>
+    <t>Tris.</t>
+  </si>
+  <si>
+    <t>Th. 2</t>
+  </si>
+  <si>
+    <t>Th. 3</t>
+  </si>
+  <si>
+    <t>Th. 4</t>
+  </si>
+  <si>
+    <t>Th. 5</t>
+  </si>
+  <si>
+    <t>Th. 6</t>
+  </si>
+  <si>
+    <t>Th. 7</t>
+  </si>
+  <si>
+    <t>Th. 8</t>
+  </si>
+  <si>
+    <t>Thème 1 - Recherche séquentielle dans un tableau unidimensionnel. Dictionnaire.</t>
+  </si>
+  <si>
+    <t>Thème 2 - Algorithmes opérant sur une structure séquentielle par boucles imbriquées.</t>
+  </si>
+  <si>
+    <t>Thème 3 - Utilisation de modules, de bibliothèques.</t>
+  </si>
+  <si>
+    <t>Thème 4 - Algorithmes dichotomiques.</t>
+  </si>
+  <si>
+    <t>S1_02_StructuresImbriquees/05_RechercheDansTableau;S1_02_StructuresImbriquees/06_RechercheMotDansTexte;S1_02_StructuresImbriquees/07_TriBulles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2497,6 +2532,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2553,9 +2591,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="660">
@@ -3212,13 +3247,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="659" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
-    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
-    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4 2" xfId="5"/>
+    <cellStyle name="Normal 4 3" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3530,79 +3565,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.2">
+      <c r="A2" s="105">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>292</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="62">
-      <c r="A2" s="104">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>300</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="87.5">
-      <c r="A3" s="105"/>
+    <row r="3" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="106"/>
       <c r="B3" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="105"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="106"/>
       <c r="B4" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="25"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="105"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="106"/>
       <c r="B5" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -3611,10 +3646,10 @@
       <c r="E5" s="25"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50.15" customHeight="1" thickBot="1">
-      <c r="A6" s="106"/>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
       <c r="B6" s="70" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C6" s="71">
         <v>43754</v>
@@ -3623,51 +3658,51 @@
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
     </row>
-    <row r="7" spans="1:8" ht="62">
-      <c r="A7" s="104">
+    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.2">
+      <c r="A7" s="105">
         <v>2</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
     </row>
-    <row r="8" spans="1:8" ht="37.5">
-      <c r="A8" s="105"/>
+    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="106"/>
       <c r="B8" s="73" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
     </row>
-    <row r="9" spans="1:8" ht="25">
-      <c r="A9" s="105"/>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="106"/>
       <c r="B9" s="73" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="25"/>
       <c r="F9" s="73"/>
       <c r="H9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="105"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="106"/>
       <c r="B10" s="73" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
@@ -3676,10 +3711,10 @@
       <c r="E10" s="25"/>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="1:8" ht="50.15" customHeight="1" thickBot="1">
-      <c r="A11" s="106"/>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
       <c r="B11" s="74" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C11" s="71">
         <v>43798</v>
@@ -3688,51 +3723,51 @@
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
     </row>
-    <row r="12" spans="1:8" ht="62">
-      <c r="A12" s="104">
+    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.2">
+      <c r="A12" s="105">
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
     </row>
-    <row r="13" spans="1:8" ht="25">
-      <c r="A13" s="105"/>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="106"/>
       <c r="B13" s="76" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
     </row>
-    <row r="14" spans="1:8" ht="25">
-      <c r="A14" s="105"/>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="106"/>
       <c r="B14" s="76" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="25"/>
       <c r="F14" s="76"/>
       <c r="H14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="105"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="106"/>
       <c r="B15" s="76" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -3741,10 +3776,10 @@
       <c r="E15" s="25"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="50.15" customHeight="1" thickBot="1">
-      <c r="A16" s="106"/>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
       <c r="B16" s="77" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C16" s="71">
         <v>43798</v>
@@ -3753,9 +3788,9 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3769,34 +3804,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26.15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" style="1"/>
+    <col min="1" max="2" width="10.85546875" style="1"/>
     <col min="3" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="9" width="37.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.7265625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="32.7265625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="10.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="41.26953125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="1"/>
-    <col min="21" max="21" width="10.81640625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="58.453125" style="57" customWidth="1"/>
-    <col min="24" max="16384" width="10.81640625" style="1"/>
+    <col min="8" max="9" width="37.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="109.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="32.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="10.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="1"/>
+    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="58.42578125" style="57" customWidth="1"/>
+    <col min="24" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.15" customHeight="1">
+    <row r="1" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3822,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -3831,10 +3867,10 @@
         <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -3843,7 +3879,7 @@
         <v>18</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>37</v>
@@ -3852,14 +3888,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="32.15" customHeight="1">
+    <row r="2" spans="1:23" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>44438</v>
       </c>
-      <c r="C2" s="123">
+      <c r="C2" s="104">
         <v>1</v>
       </c>
       <c r="D2" s="17"/>
@@ -3869,37 +3905,37 @@
         <v>0</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I2" s="84" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="J2" s="80"/>
       <c r="K2" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="25"/>
       <c r="P2" s="103" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U2" s="53"/>
       <c r="V2" s="58"/>
       <c r="W2" s="58"/>
     </row>
-    <row r="3" spans="1:23" ht="32.15" customHeight="1">
+    <row r="3" spans="1:23" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3907,7 +3943,7 @@
         <f>B4</f>
         <v>44445</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="104">
         <v>1</v>
       </c>
       <c r="D3" s="17"/>
@@ -3917,37 +3953,37 @@
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J3" s="102"/>
       <c r="K3" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="M3" s="66" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="N3" s="102"/>
       <c r="O3" s="25"/>
       <c r="P3" s="103" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U3" s="53"/>
       <c r="V3" s="58"/>
       <c r="W3" s="58"/>
     </row>
-    <row r="4" spans="1:23" ht="32.15" customHeight="1">
+    <row r="4" spans="1:23" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3955,7 +3991,7 @@
         <f>B2+7</f>
         <v>44445</v>
       </c>
-      <c r="C4" s="123">
+      <c r="C4" s="104">
         <v>1</v>
       </c>
       <c r="D4" s="17"/>
@@ -3965,20 +4001,20 @@
         <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J4" s="80"/>
       <c r="K4" s="65" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L4" s="66" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="M4" s="66" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="25"/>
@@ -3986,16 +4022,16 @@
         <v>34</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="25">
+    <row r="5" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4003,7 +4039,7 @@
         <f>B4+7</f>
         <v>44452</v>
       </c>
-      <c r="C5" s="123">
+      <c r="C5" s="104">
         <v>1</v>
       </c>
       <c r="D5" s="17"/>
@@ -4013,17 +4049,17 @@
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J5" s="80"/>
-      <c r="L5" s="56" t="s">
-        <v>244</v>
+      <c r="L5" s="66" t="s">
+        <v>339</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="25"/>
@@ -4031,16 +4067,16 @@
         <v>34</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="58"/>
       <c r="W5" s="58"/>
     </row>
-    <row r="6" spans="1:23" ht="32.15" customHeight="1">
+    <row r="6" spans="1:23" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4048,7 +4084,7 @@
         <f t="shared" ref="B6:B10" si="0">B5+7</f>
         <v>44459</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="104">
         <v>1</v>
       </c>
       <c r="D6" s="17"/>
@@ -4058,20 +4094,20 @@
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J6" s="80"/>
       <c r="K6" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>241</v>
+        <v>329</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>339</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="25"/>
@@ -4079,16 +4115,16 @@
         <v>34</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="58"/>
       <c r="W6" s="58"/>
     </row>
-    <row r="7" spans="1:23" ht="26.15" customHeight="1">
+    <row r="7" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4096,7 +4132,7 @@
         <f>B6+7</f>
         <v>44466</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="104">
         <v>1</v>
       </c>
       <c r="D7" s="17"/>
@@ -4106,20 +4142,20 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>241</v>
+        <v>359</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>348</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="25"/>
@@ -4127,16 +4163,16 @@
         <v>34</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>39</v>
+        <v>356</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="58"/>
       <c r="W7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="26.15" customHeight="1">
+    <row r="8" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4144,7 +4180,7 @@
         <f t="shared" si="0"/>
         <v>44473</v>
       </c>
-      <c r="C8" s="123"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="11"/>
@@ -4152,18 +4188,20 @@
         <v>3</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="L8" s="5"/>
+        <v>359</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>348</v>
+      </c>
       <c r="M8" s="66" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
@@ -4171,16 +4209,16 @@
         <v>34</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>39</v>
+        <v>356</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="58"/>
       <c r="W8" s="58"/>
     </row>
-    <row r="9" spans="1:23" ht="25">
+    <row r="9" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4188,7 +4226,7 @@
         <f t="shared" si="0"/>
         <v>44480</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="104">
         <v>1</v>
       </c>
       <c r="D9" s="17"/>
@@ -4198,18 +4236,18 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="65"/>
-      <c r="L9" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>241</v>
+      <c r="L9" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>349</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="21" t="s">
@@ -4219,14 +4257,14 @@
         <v>34</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="R9" s="20"/>
       <c r="U9" s="53"/>
       <c r="V9" s="58"/>
       <c r="W9" s="58"/>
     </row>
-    <row r="10" spans="1:23" ht="25">
+    <row r="10" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4234,7 +4272,7 @@
         <f t="shared" si="0"/>
         <v>44487</v>
       </c>
-      <c r="C10" s="123">
+      <c r="C10" s="104">
         <v>1</v>
       </c>
       <c r="D10" s="17"/>
@@ -4244,20 +4282,20 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>241</v>
+        <v>329</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>349</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="81" t="s">
@@ -4267,31 +4305,31 @@
         <v>34</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="R10" s="20"/>
       <c r="U10" s="53"/>
       <c r="V10" s="58"/>
       <c r="W10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="26.15" customHeight="1">
-      <c r="A11" s="107" t="s">
+    <row r="11" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="19"/>
@@ -4299,7 +4337,7 @@
       <c r="V11" s="58"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="26.15" customHeight="1">
+    <row r="12" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4317,17 +4355,17 @@
         <v>8</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J12" s="84" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="65"/>
       <c r="L12" s="61" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="3"/>
@@ -4336,14 +4374,14 @@
         <v>34</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R12" s="20"/>
       <c r="U12" s="53"/>
       <c r="V12" s="58"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="26.15" customHeight="1">
+    <row r="13" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4361,14 +4399,14 @@
         <v>6</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="61" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="3"/>
@@ -4377,13 +4415,13 @@
         <v>34</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="U13" s="53"/>
       <c r="V13" s="58"/>
       <c r="W13" s="58"/>
     </row>
-    <row r="14" spans="1:23" ht="26.15" customHeight="1">
+    <row r="14" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4401,20 +4439,20 @@
         <v>6</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J14" s="80"/>
       <c r="K14" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="25"/>
@@ -4422,14 +4460,14 @@
         <v>34</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="R14" s="20"/>
       <c r="U14" s="53"/>
       <c r="V14" s="58"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:23" ht="26.15" customHeight="1">
+    <row r="15" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4447,18 +4485,18 @@
         <v>7</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J15" s="80"/>
       <c r="K15" s="5"/>
       <c r="L15" s="61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="25"/>
@@ -4466,13 +4504,13 @@
         <v>34</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="U15" s="53"/>
       <c r="V15" s="58"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:23" ht="26.15" customHeight="1">
+    <row r="16" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4490,20 +4528,20 @@
         <v>7</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L16" s="66" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>29</v>
@@ -4513,14 +4551,14 @@
         <v>34</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R16" s="20"/>
       <c r="U16" s="53"/>
       <c r="V16" s="58"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="26.15" customHeight="1">
+    <row r="17" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4538,20 +4576,20 @@
         <v>8</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J17" s="80"/>
       <c r="K17" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="21"/>
@@ -4559,31 +4597,31 @@
         <v>34</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R17" s="19"/>
       <c r="U17" s="53"/>
       <c r="V17" s="58"/>
       <c r="W17" s="58"/>
     </row>
-    <row r="18" spans="1:23" ht="26.15" customHeight="1">
-      <c r="A18" s="107" t="s">
+    <row r="18" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="19"/>
@@ -4591,7 +4629,7 @@
       <c r="V18" s="58"/>
       <c r="W18" s="58"/>
     </row>
-    <row r="19" spans="1:23" ht="26.15" customHeight="1">
+    <row r="19" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4609,32 +4647,32 @@
         <v>9</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J19" s="18"/>
       <c r="L19" s="67" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="26"/>
       <c r="P19" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R19" s="20"/>
       <c r="U19" s="53"/>
       <c r="V19" s="58"/>
       <c r="W19" s="58"/>
     </row>
-    <row r="20" spans="1:23" ht="26.15" customHeight="1">
+    <row r="20" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4652,37 +4690,37 @@
         <v>9</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J20" s="84" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L20" s="67" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="26"/>
       <c r="P20" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R20" s="20"/>
       <c r="U20" s="53"/>
       <c r="V20" s="58"/>
       <c r="W20" s="58"/>
     </row>
-    <row r="21" spans="1:23" ht="26.15" customHeight="1">
+    <row r="21" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4700,29 +4738,29 @@
         <v>10</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I21" s="11"/>
       <c r="L21" s="56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="25"/>
       <c r="P21" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R21" s="20"/>
       <c r="U21" s="53"/>
       <c r="V21" s="58"/>
       <c r="W21" s="58"/>
     </row>
-    <row r="22" spans="1:23" ht="26.15" customHeight="1">
+    <row r="22" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4740,33 +4778,33 @@
         <v>10</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="80"/>
       <c r="K22" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M22" s="56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="25"/>
       <c r="P22" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R22" s="20"/>
       <c r="U22" s="53"/>
       <c r="V22" s="58"/>
       <c r="W22" s="58"/>
     </row>
-    <row r="23" spans="1:23" ht="26.15" customHeight="1">
+    <row r="23" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4782,24 +4820,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G23" s="84">
         <v>11</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="80"/>
       <c r="K23" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L23" s="66" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M23" s="66" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="25"/>
@@ -4807,14 +4845,14 @@
         <v>36</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R23" s="19"/>
       <c r="U23" s="53"/>
       <c r="V23" s="58"/>
       <c r="W23" s="58"/>
     </row>
-    <row r="24" spans="1:23" ht="26.15" customHeight="1">
+    <row r="24" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4830,24 +4868,24 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G24" s="12">
         <v>12</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="80"/>
       <c r="K24" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L24" s="66" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M24" s="66" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N24" s="80"/>
       <c r="O24" s="25"/>
@@ -4855,31 +4893,31 @@
         <v>36</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R24" s="19"/>
       <c r="U24" s="53"/>
       <c r="V24" s="58"/>
       <c r="W24" s="58"/>
     </row>
-    <row r="25" spans="1:23" ht="26.15" customHeight="1">
-      <c r="A25" s="107" t="s">
+    <row r="25" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="19"/>
@@ -4887,7 +4925,7 @@
       <c r="V25" s="58"/>
       <c r="W25" s="58"/>
     </row>
-    <row r="26" spans="1:23" ht="26.15" customHeight="1">
+    <row r="26" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -4895,7 +4933,7 @@
         <f>B24+21</f>
         <v>44620</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26" s="112">
         <v>1</v>
       </c>
       <c r="D26" s="94"/>
@@ -4903,22 +4941,22 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G26" s="12">
         <v>12</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="66" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M26" s="66" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>15</v>
@@ -4928,11 +4966,11 @@
         <v>36</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="26.15" customHeight="1">
+    <row r="27" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -4940,42 +4978,42 @@
         <f>B26+7</f>
         <v>44627</v>
       </c>
-      <c r="C27" s="112"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="96"/>
       <c r="E27" s="95">
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G27" s="12">
         <v>13</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="84" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L27" s="66" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="25"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="26.15" customHeight="1">
+    <row r="28" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -4983,28 +5021,28 @@
         <f>B27+7</f>
         <v>44634</v>
       </c>
-      <c r="C28" s="112"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="96"/>
       <c r="E28" s="95">
         <v>3</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G28" s="12">
         <v>13</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="18"/>
       <c r="K28" s="5"/>
       <c r="L28" s="66" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="25"/>
@@ -5012,14 +5050,14 @@
         <v>36</v>
       </c>
       <c r="Q28" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R28" s="19"/>
       <c r="U28" s="53"/>
       <c r="V28" s="58"/>
       <c r="W28" s="58"/>
     </row>
-    <row r="29" spans="1:23" ht="26.15" customHeight="1">
+    <row r="29" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -5027,41 +5065,41 @@
         <f t="shared" si="2"/>
         <v>44641</v>
       </c>
-      <c r="C29" s="112"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="96"/>
       <c r="E29" s="95">
         <v>3</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G29" s="12">
         <v>14</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I29" s="12"/>
       <c r="K29" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L29" s="66" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R29" s="20"/>
       <c r="U29" s="53"/>
       <c r="V29" s="58"/>
       <c r="W29" s="58"/>
     </row>
-    <row r="30" spans="1:23" ht="26.15" customHeight="1">
+    <row r="30" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -5069,7 +5107,7 @@
         <f t="shared" si="2"/>
         <v>44648</v>
       </c>
-      <c r="C30" s="112"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="96"/>
       <c r="E30" s="95">
         <v>4</v>
@@ -5081,16 +5119,16 @@
         <v>14</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="66" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="21"/>
@@ -5098,14 +5136,14 @@
         <v>36</v>
       </c>
       <c r="Q30" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R30" s="19"/>
       <c r="U30" s="53"/>
       <c r="V30" s="58"/>
       <c r="W30" s="58"/>
     </row>
-    <row r="31" spans="1:23" ht="26.15" customHeight="1">
+    <row r="31" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -5113,7 +5151,7 @@
         <f t="shared" si="2"/>
         <v>44655</v>
       </c>
-      <c r="C31" s="113"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="97"/>
       <c r="E31" s="95">
         <v>4</v>
@@ -5125,31 +5163,31 @@
         <v>15</v>
       </c>
       <c r="H31" s="85" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="80"/>
       <c r="K31" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L31" s="66" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M31" s="66" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="25"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R31" s="20"/>
       <c r="U31" s="53"/>
       <c r="V31" s="58"/>
       <c r="W31" s="58"/>
     </row>
-    <row r="32" spans="1:23" ht="26.15" customHeight="1">
+    <row r="32" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -5177,10 +5215,10 @@
       <c r="J32" s="4"/>
       <c r="K32" s="5"/>
       <c r="L32" s="56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>30</v>
@@ -5190,31 +5228,31 @@
         <v>35</v>
       </c>
       <c r="Q32" s="35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R32" s="19"/>
       <c r="U32" s="53"/>
       <c r="V32" s="58"/>
       <c r="W32" s="58"/>
     </row>
-    <row r="33" spans="1:23" ht="26.15" customHeight="1">
-      <c r="A33" s="109" t="s">
+    <row r="33" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="19"/>
@@ -5222,7 +5260,7 @@
       <c r="V33" s="58"/>
       <c r="W33" s="58"/>
     </row>
-    <row r="34" spans="1:23" ht="26.15" customHeight="1">
+    <row r="34" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -5249,13 +5287,13 @@
       <c r="I34" s="98"/>
       <c r="J34" s="18"/>
       <c r="K34" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L34" s="56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M34" s="56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
@@ -5263,14 +5301,14 @@
         <v>35</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R34" s="19"/>
       <c r="U34" s="53"/>
       <c r="V34" s="58"/>
       <c r="W34" s="58"/>
     </row>
-    <row r="35" spans="1:23" ht="26.15" customHeight="1">
+    <row r="35" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -5286,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G35" s="98">
         <v>17</v>
@@ -5297,23 +5335,23 @@
       <c r="I35" s="98"/>
       <c r="J35" s="6"/>
       <c r="K35" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L35" s="56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M35" s="56" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="27"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R35" s="20"/>
     </row>
-    <row r="36" spans="1:23" ht="26.15" customHeight="1">
+    <row r="36" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5329,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G36" s="98">
         <v>17</v>
@@ -5342,10 +5380,10 @@
         <v>30</v>
       </c>
       <c r="L36" s="59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M36" s="59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="27"/>
@@ -5353,11 +5391,11 @@
         <v>35</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R36" s="19"/>
     </row>
-    <row r="37" spans="1:23" ht="26.15" customHeight="1">
+    <row r="37" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5373,34 +5411,34 @@
         <v>6</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G37" s="84">
         <v>18</v>
       </c>
       <c r="H37" s="85" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I37" s="83"/>
       <c r="K37" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L37" s="60" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O37" s="21"/>
       <c r="P37" s="61" t="s">
         <v>35</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R37" s="29"/>
     </row>
-    <row r="38" spans="1:23" ht="26.15" customHeight="1">
+    <row r="38" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5416,18 +5454,18 @@
         <v>6</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G38" s="98">
         <v>19</v>
       </c>
       <c r="H38" s="98" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I38" s="98"/>
       <c r="J38" s="7"/>
       <c r="K38" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
@@ -5437,14 +5475,14 @@
         <v>36</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R38" s="20"/>
       <c r="U38" s="53"/>
       <c r="V38" s="58"/>
       <c r="W38" s="58"/>
     </row>
-    <row r="39" spans="1:23" ht="26.15" customHeight="1">
+    <row r="39" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5462,7 +5500,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="98" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I39" s="99"/>
       <c r="J39" s="4"/>
@@ -5475,14 +5513,14 @@
       <c r="O39" s="21"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R39" s="29"/>
       <c r="U39" s="53"/>
       <c r="V39" s="58"/>
       <c r="W39" s="58"/>
     </row>
-    <row r="40" spans="1:23" ht="26.15" customHeight="1">
+    <row r="40" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5505,7 +5543,7 @@
       <c r="I40" s="98"/>
       <c r="J40" s="4"/>
       <c r="K40" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -5513,14 +5551,14 @@
       <c r="O40" s="21"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R40" s="20"/>
       <c r="U40" s="53"/>
       <c r="V40" s="58"/>
       <c r="W40" s="58"/>
     </row>
-    <row r="41" spans="1:23" ht="26.15" customHeight="1">
+    <row r="41" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>33</v>
       </c>
@@ -5538,12 +5576,12 @@
         <v>21</v>
       </c>
       <c r="H41" s="85" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I41" s="98"/>
       <c r="J41" s="18"/>
       <c r="K41" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -5551,14 +5589,14 @@
       <c r="O41" s="26"/>
       <c r="P41" s="18"/>
       <c r="Q41" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R41" s="29"/>
       <c r="U41" s="53"/>
       <c r="V41" s="58"/>
       <c r="W41" s="58"/>
     </row>
-    <row r="42" spans="1:23" ht="26.15" customHeight="1">
+    <row r="42" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>34</v>
       </c>
@@ -5580,99 +5618,99 @@
       </c>
       <c r="I42" s="99"/>
       <c r="K42" s="65" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R42" s="20"/>
       <c r="U42" s="53"/>
       <c r="V42" s="58"/>
       <c r="W42" s="58"/>
     </row>
-    <row r="43" spans="1:23" ht="26.15" customHeight="1">
-      <c r="A43" s="109" t="s">
+    <row r="43" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="110"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="34"/>
       <c r="U43" s="53"/>
       <c r="V43" s="58"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="26.15" customHeight="1">
+    <row r="44" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U44" s="53"/>
       <c r="V44" s="58"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="26.15" customHeight="1">
+    <row r="45" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U45" s="53"/>
       <c r="V45" s="58"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="26.15" customHeight="1">
+    <row r="46" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U46" s="53"/>
       <c r="V46" s="58"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="26.15" customHeight="1">
+    <row r="47" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U47" s="53"/>
       <c r="V47" s="58"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="26.15" customHeight="1">
+    <row r="48" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U48" s="53"/>
       <c r="V48" s="58"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="21:23" ht="26.15" customHeight="1">
+    <row r="49" spans="21:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U49" s="53"/>
       <c r="V49" s="58"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="21:23" ht="26.15" customHeight="1">
+    <row r="50" spans="21:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U50" s="53"/>
       <c r="V50" s="58"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="21:23" ht="26.15" customHeight="1">
+    <row r="51" spans="21:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U51" s="53"/>
       <c r="V51" s="58"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="21:23" ht="26.15" customHeight="1">
+    <row r="52" spans="21:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U52" s="53"/>
       <c r="V52" s="58"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="21:23" ht="26.15" customHeight="1">
+    <row r="53" spans="21:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U53" s="53"/>
       <c r="V53" s="58"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="21:23" ht="26.15" customHeight="1">
+    <row r="54" spans="21:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U54" s="53"/>
       <c r="V54" s="58"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="21:23" ht="26.15" customHeight="1">
+    <row r="55" spans="21:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U55" s="53"/>
       <c r="V55" s="58"/>
       <c r="W55" s="58"/>
@@ -5693,22 +5731,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="10.85546875" style="2"/>
+    <col min="2" max="2" width="70.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1"/>
-    <row r="2" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -5716,23 +5754,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38.15" customHeight="1">
+    <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38.15" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38.15" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -5740,7 +5778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38.15" customHeight="1">
+    <row r="6" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5748,12 +5786,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38.15" customHeight="1">
+    <row r="7" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5764,707 +5802,795 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="53"/>
-    <col min="2" max="2" width="108.453125" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.453125" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="53"/>
+    <col min="1" max="1" width="10.85546875" style="53"/>
+    <col min="2" max="2" width="108.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.42578125" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="54" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="54" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="54" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24">
-      <c r="A4" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="C25" s="54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C27" s="54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="54" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24">
-      <c r="A5" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="54" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="54" t="s">
+    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="54" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24">
-      <c r="A23" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="54" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="63" t="s">
+    <row r="46" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A47" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="63" t="s">
+      <c r="C47" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A48" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="63" t="s">
+      <c r="C48" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A51" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A52" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C52" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="54" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="54" t="s">
+      <c r="C53" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A55" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C55" s="54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24">
-      <c r="A39" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="54" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C39" s="54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="54" t="s">
+      <c r="C56" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A57" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="C40" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24">
-      <c r="A43" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="36">
-      <c r="A44" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="54" t="s">
+      <c r="C57" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A58" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C44" s="54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24">
-      <c r="A45" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="54" t="s">
+      <c r="C58" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="54" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A59" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="54" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="C48" s="54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24">
-      <c r="A49" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49" s="54" t="s">
+      <c r="C62" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C49" s="54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="54" t="s">
+      <c r="C65" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A69" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C70" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="54" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="24">
-      <c r="A51" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="54" t="s">
+      <c r="C74" s="54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="54" t="s">
+      <c r="C75" s="54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24">
-      <c r="A61" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="54" t="s">
+      <c r="B76" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C76" s="54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="54" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="C66" s="54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="36">
-      <c r="A67" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="53" t="s">
-        <v>248</v>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="53" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6475,620 +6601,620 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.26953125" customWidth="1"/>
+    <col min="2" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5">
-      <c r="A1" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-    </row>
-    <row r="2" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
     </row>
-    <row r="3" spans="1:4" ht="42">
+    <row r="3" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="39"/>
     </row>
-    <row r="4" spans="1:4" ht="31.5">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="53" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13" thickBot="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
-      <c r="A12" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-    </row>
-    <row r="13" spans="1:4">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:4" ht="21">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="39"/>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D23" s="39"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="39"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:4" ht="21">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" ht="21">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:4" ht="21">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:4" ht="21">
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="31.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="31.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="31.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="52.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="32" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
     </row>
-    <row r="41" spans="1:4" ht="14.5">
-      <c r="A41" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
-    </row>
-    <row r="42" spans="1:4" ht="31.5">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="120"/>
+    </row>
+    <row r="42" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
     </row>
-    <row r="43" spans="1:4" ht="52.5">
+    <row r="43" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
     </row>
-    <row r="44" spans="1:4" ht="31.5">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
     </row>
-    <row r="45" spans="1:4" ht="21">
+    <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
     </row>
-    <row r="46" spans="1:4" ht="21">
+    <row r="46" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
     </row>
-    <row r="47" spans="1:4" ht="42">
+    <row r="47" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="31.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="52.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="74" thickBot="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
-      <c r="A52" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
-    </row>
-    <row r="53" spans="1:4" ht="21">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
+    </row>
+    <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
     </row>
-    <row r="54" spans="1:4" ht="21">
+    <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4" ht="21">
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4" ht="21">
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
     </row>
-    <row r="57" spans="1:4" ht="21">
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
     </row>
-    <row r="58" spans="1:4" ht="21">
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="52.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="21.5" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1">
-      <c r="A62" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="122"/>
-    </row>
-    <row r="63" spans="1:4">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="123"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
     </row>
-    <row r="65" spans="1:4" ht="42">
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A65" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D65" s="38"/>
     </row>

--- a/progression_2021_2022_Info_MPSI.xlsx
+++ b/progression_2021_2022_Info_MPSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78698EC9-3B5D-451E-8B53-9C35D27B5D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9996454-9189-4CCC-9C27-06A6832609A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="292" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,13 +1807,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,7 +2519,7 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2990,23 +2990,23 @@
       <c r="X9" s="22"/>
     </row>
     <row r="10" spans="1:24" ht="26" customHeight="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -3302,23 +3302,23 @@
       <c r="X16" s="22"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -3626,23 +3626,23 @@
       <c r="X23" s="22"/>
     </row>
     <row r="24" spans="1:24" ht="26" customHeight="1">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
@@ -3659,7 +3659,7 @@
         <f>B23+21</f>
         <v>44620</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="90">
         <v>1</v>
       </c>
       <c r="D25" s="36"/>
@@ -3707,7 +3707,7 @@
         <f>B25+7</f>
         <v>44627</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="41"/>
       <c r="E26" s="37">
         <v>2</v>
@@ -3748,7 +3748,7 @@
         <f>B26+7</f>
         <v>44634</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="41"/>
       <c r="E27" s="37">
         <v>3</v>
@@ -3793,7 +3793,7 @@
         <f t="shared" si="1"/>
         <v>44641</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="41"/>
       <c r="E28" s="37">
         <v>3</v>
@@ -3839,7 +3839,7 @@
         <f t="shared" si="1"/>
         <v>44648</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="41"/>
       <c r="E29" s="37">
         <v>4</v>
@@ -3884,7 +3884,7 @@
         <f t="shared" si="1"/>
         <v>44655</v>
       </c>
-      <c r="C30" s="89"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="42"/>
       <c r="E30" s="37">
         <v>4</v>
@@ -3973,23 +3973,23 @@
       <c r="X31" s="22"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
       <c r="P32" s="43"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
@@ -4403,23 +4403,23 @@
       <c r="X41" s="22"/>
     </row>
     <row r="42" spans="1:24" ht="26" customHeight="1">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
       <c r="P42" s="43"/>
       <c r="Q42" s="44"/>
       <c r="R42" s="44"/>
